--- a/Data_ML_cleaned.xlsx
+++ b/Data_ML_cleaned.xlsx
@@ -895,8 +895,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>.   Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU. 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die SVP-Masseneinwanderungsinitiative will die Zuwanderung mit Kontingenten beschränken. Die Schweiz hat Erfahrung mit diesem Instrument. 30 Jahre lang legten Bund, Kantone, Arbeitgeber und Arbeitnehmer fest, wie viele Ausländer ins Land kommen können. Fritz Blaser und Vasco Pedrina erinnern sich.  Als der Bundesrat 1970 als Antwort auf die rigide Schwarzenbach-Initiative Kontingente zur Begrenzung ausländischer Arbeitskräfte einführte, unterstützten ihn die Gewerkschaften unisono. Und auch verschiedene Arbeitgeber zeigten Verständnis. Einer von ihnen war Fritz Blaser. Heute ist er pensioniert. Damals war er im Management der Chemiefirma Lonza und später Präsident des Arbeitgeberverbands: «Damals war die Mehrheit dafür, dass man diese Kontingente einführt, um gegenüber der Bevölkerung ein Zeichen zu setzen und glaubwürdig dazustehen.» Glaubwürdig, weil man die Schweizer Ängste vor einer Überfremdung ernst genommen habe, erinnert sich Blaser. Glaubwürdig aber auch gegenüber der eigenen Basis, erzählt der 63-jährige Gewerkschafter Vasco Pedrina. Er war während Jahren Co-Präsident von Gewerkschaftsbund und Unia: «Es gab damals einen Druck seitens der Arbeitnehmer, die die Migranten als Konkurrenten empfunden haben.» Konkurrenten, die den Schweizern für weniger Lohn die Arbeit wegnahmen. Doch die Kontingente brachten nicht, was man sich erhofft hatte. Die ausländische Bevölkerung wuchs leicht weiter – bis die Ölkrise Mitte der 70er Jahre die Einwanderung dämpfte. Sobald die Wirtschaft wieder florierte, nahm die Zahl der ausländischen Arbeitskräfte abermals zu und stieg phasenweise auf durchschnittlich 180'000 Ausländer, die jährlich hierzulande arbeiteten. Dass die Zahl der ausländischen Arbeitskräfte durch Kontingente begrenzt war, sei für die Arbeitgeber kein Problem gewesen, erinnert sich der ehemalige Lonza-Manager Blaser: «Wir in unserer Branche haben die Leute, die wir brauchten, immer bekommen. Ob das im Rahmen der Kontingentszahl in den Hinterköpfen der Beamten entscheidend war – für mich war es das absolut nicht. Wenn ich sie gebraucht habe, hat man angefragt, und dann hat man sie auch bekommen.» Der bürokratische Aufwand für die Unternehmen sei minimal gewesen. Häufig habe ein Telefon gereicht, und die Bewilligung für zusätzliche Arbeitnehmer aus dem Ausland sei eingetroffen. Auch Vasco Pedrina und die Gewerkschaften mussten das feststellen: «Wenn die Kontingente nicht gross genug waren, haben die Unternehmer die Leute einfach illegal geholt und die Beamten haben diese Situation toleriert.» Der Druck auf die Löhne blieb unverändert – auf die Saläre im Gastgewerbe oder auf dem Bau beispielsweise hatten die Kontigente keinen Einfluss. Doch zu den wirklichen Sorgenkindern der Gewerkschaften wurden die sogenannten Saisonniers. Diejenigen Ausländer, die jeweils im Frühling aus Italien oder Spanien in die Schweiz kamen, um bis im Herbst auf dem Bau oder in der Landwirtschaft zu arbeiten. «Sie kamen an die Grenze, zum Beispiel in Buchs SG. Dort mussten sie stundenlang draussen warten, in der Kälte. Wie Vieh wurden sie behandelt. Und wenn sie nicht ganz gesund waren, wurden sie nach Hause geschickt.» Die Gewerkschaften kamen unter anderem deshalb zum Schluss: Für sie war die Einführung der Kontingente im Rückblick ein Fehler. Mit der «Schwarzenbach-Initiative» wollte James Schwarzenbach die Schweiz vor «Überfremdung» schützen. Der Anteil ausländischer Bevölkerung hätte die 10 %-Hürde nicht überschreiten dürfen. Genf wäre eine Ausnahme gewesen. Die Initiative wurde 1970 abgelehnt. Wäre sie angenommen worden, hätten etwa 300'000 Menschen ausgewiesen werden müssen. Von da an kämpften sie für die Personenfreizügigkeit mit der EU, in der Hoffnung mit den flankierenden Massnahmen ein Instrument gegen Lohndumping zu bekommen. Und wieder waren die Arbeitgeber mit an Bord, wenn auch aus anderen Gründen, wie Fritz Blaser erzählt: «Weil letztendlich jeder sein Umfeld genau analysiert hat und gesehen hat, es kommt mir zu Gute, wenn ich die Leute relativ unkompliziert auf dem Markt finden kann, auch wenn es im Ausland ist.» Im Mai 2000 sagte das Schweizer Stimmvolk ja zu den ersten Bilateralen Verträgen und somit Ja zur freien Personenfreizügigkeit mit der EU. Kontingente gibt es seither noch für die EU-Staaten Rumänien und Bulgarien und für Länder ausserhalb der EU.</t>
         </is>
       </c>
     </row>
@@ -938,8 +937,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>.   Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die Würfel im Tessin scheinen schon jetzt gefallen: Wenige Wochen vor der Abstimmung über die Masseneinwanderungsinitiative gehen die Befürworter von einem klaren Sieg aus. Gegner wie die SP trauen sich derweil kaum an die Öffentlichkeit. 16.01.2014, 17:20 Im Kanton Tessin zeigen sich jene, die die Masseneinwanderungsinitiative bekämpfen, kaum in der Öffentlichkeit. Grund: Offenbar wird der Grossteil der Tessiner ein Ja in die Urne legen. Der Kampf scheint hoffnungslos. Zu den Gegnern gehören die Tessiner Sozialdemokraten, die sich beinahe schon geschlagen geben. «Ich glaube, dass die Tessiner die Initiative leider annehmen werden. Und sie stimmen vor allem so, weil sie Angst vor Dumpinglöhnen haben», sagt Saverio Lurati, Präsident SP Tessin. Auf der anderen Seite scheint man sich des Sieges bereits sicher und investiert lieber in Plakate in der Deutschschweiz. Anders als dort sind hier SVP-Plakate nicht omnipräsent. Attilio Bigniasca, der die Lega dei Ticinesi seit dem Tod seines Bruders führt, geht von einer haushohen Annahme aus. «Wir glauben, dass 70 Prozent der Tessiner für die Initiative stimmen werden.» Die Ausländerfrage ist im Tessin allgegenwärtig. Grenzgänger fahren seit Beginn der Krise in Italien zu Zehntausenden ins Tessin zur Arbeit. Viele Einheimische fürchten deshalb um ihre Arbeitsplätze und klagen über Lohndumping. Es gebe viele Schreiner, Gipser, Gärtner und Plattenleger, die aus dem benachbarten Italien ins Tessin arbeiten kämen, sagt Vincenzo Surace, gebürtiger Italiener und Besitzer einer Schreinerei in Lugano. Er klagt: «Sie arbeiten Schwarz oder kommen, um schnell 50 Euro zu verdienen. Das Geld nehmen sie dann wieder nach Hause mit». Er verliere seit drei Jahren laufend Aufträge an italienische Handwerker, die für einen Bruchteil seiner Preise arbeiteten. Wenn er könnte, würde er für die Masseninitiative stimmen, sagt Surace weiter. Für Frust sorgen insbesondere Handwerker, die lediglich für wenige Tage ins Tessin kommen und selbstständig Aufträge ausführen. Denn: Im Gegensatz zu den Zuwanderern und Grenzgängern sind sie nicht von der Initiative betroffen. Sie fallen nicht unter die Personenfreizügigkeit. Politologe Oscar Mazzoleni ist der Ansicht, dass die Tessiner nicht fremdenfeindlicher sind als andere Schweizer: «Sie sind nicht gegen die Ausländer. Es geht vor allem um Italien, das als Land in der Krise wahrgenommen wird», sagt er. Man wolle nicht den eigenen Wohlstand riskieren, den man in den letzten Jahren errungen habe. srf/zila; weis</t>
         </is>
       </c>
     </row>
@@ -981,8 +979,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>.   Im Schnitt wandern 70‘000 Menschen pro Jahr ein – so viele, wie die Stadt St. Gallen Einwohner zählt. Zu viele, findet die SVP. Mit ihrer Initiative will sie die Zuwanderung begrenzen. Die Gegner halten dagegen: Die Initiative gefährde den Wohlstand. 09.01.2014, 22:06 Am 9. Februar stimmt das Volk über die SVP-Initiative «Gegen die Masseneinwanderung» ab. Am Donnerstag trafen sich prominente Befürworter und Gegner in der alten Mühle Langenthal (BE). Die Sendung «Forum» von Radio SRF 1 übertrug die Debatte live. «Der Bundesrat ist gegen die Initiative», sagt Bundesrat Johann Schneider-Ammann. «Wir haben in der Schweiz Vollbeschäftigung und Wachstum, und das möchte ich nicht ändern.» SVP-Nationalrat Adrian Amstutz ist da anderer Meinung: «Es geht ums Mass.» In die Schweiz kämen jedes Jahr bald 80‘000 Zuwanderer. «Das ist zu viel. In dem Tempo kann es nicht weitergehen.» Bis im Jahr 2035 würde die Schweiz in Richtung zehn Millionen Einwohner steuern, wenn wir so weitermachten wie bisher. Das sage das Bundesamt für Statistik. Das Begehren der SVP verlangt: Der Staat soll festlegen, wie viele Personen aus welchem Land pro Jahr in die Schweiz ziehen oder hier arbeiten dürfen, die Grenzgänger und Asylsuchenden einbezogen. Die Initiative will die Personenfreizügigkeit mit der EU neu verhandeln. «Die Initiative löst keine Probleme», wirft SP-Nationalrätin Nadine Masshardt ein. Sie bringt die flankierenden Massnahmen ins Spiel, für die sich die Sozialdemokraten stark machen. Es müsse bei der Raumplanung angesetzt werden. Im Arbeitsmarkt brauche es einen Mindestlohn, mehr Investitionen im preisgünstigen Wohnungsbau. Und eine Bildungsoffensive für Fachkräfte müsse her. Für den SVP-Stadtrat von Langenthal, Patrick Freudiger, sind die flankierenden Massnahmen keine Lösung. Langenthal habe einen überdurchschnittlich hohen Ausländeranteil und sehr wenig freies Bauland. «Wir müssen in die Höhe bauen. Das bedeutet mehr Leute auf weniger Raum. Das schränkt die Lebensqualität ein.» Thimo Thimm ist deutscher Staatsbürger und Leiter Operationssäle Spital Langenthal. Eigentlich wollte er gar nicht explizit in die Schweiz kommen, wurde dann aber abgeworben. Für ihn ist klar: Die Schweiz braucht Fachkräfte aus dem Ausland, anders kommt sein Spital nicht an qualifiziertes Personal heran. Amstutz hält entgegen, dass die Schweiz zwar Vollbeschäftigung habe, aber die Arbeitslosenzahl seit 2001 gestiegen sei, und nicht gesunken. «Es findet trotz überhitzter Konjunktur ein Verdrängungskampf statt.» Etwa würden die Ex-Jugoslawen aus dem Arbeitsmarkt verdrängt, «und aufgefüllt durch junge Portugiesen.» Zudem würden dann die aus dem Arbeitsmarkt verdrängten Ausländer dem hiesigen Sozialwesen auf der Tasche liegen. «Die Arbeitslosenquote hat relativ gesehen zur Bevölkerung nicht zugenommen in den letzten Jahren», antwortet Bundesrat Schneider-Ammann. Auch habe laut Studien keine Verdrängung stattgefunden. «Die Personenfreizügigkeit hat bei den mittleren Löhnen bewirkt, dass nicht mehr das passiert ist, was hätte passieren können, wenn das Angebot weniger gross gewesen wäre. Bei den tieferen Löhnen stellten die Studien keine Nachteile fest.» Auch zu den hohen Mietpreisen nimmt der Bundesrat Stellung: «Für einzelne Hotspots wie Genf, Basel oder Zürich stimmt das.» Doch es gäbe im Land insgesamt Wohnmöglichkeiten zu vernünftigen Preisen. «Der Bundesrat behauptet immer, es läuft besser», sagt SVP-Nationalrat Adrian Amstutz. Die Frage gehe an jeden einzelnen. «Haben wir mehr im Portemonnaie? Geht es uns wirklich besser?» Doch wie viele Leute würden dann kommen, würde die Initiative angenommen? Adrian Amstutz: «Etwa 50‘000 wären meiner Meinung nach die obere Grenze.» Das lege die Wirtschaft fest. Über ein Drittel komme momentan in die Schweiz, nicht um hier zu arbeiten, sondern als Familiennachzug, so Amstutz. «Wenn Initiative angenommen wird, dann wächst die Bürokratie», so Schneider-Ammann. Die Firmen müssten prompt reagieren können, wenn sie Leute brauchten. Die Initiative bewirke, dass Investitionen heruntergefahren würden und es weniger Arbeitsplätze gebe. Der Bundesrat warnt zudem: Wenn die Initiative angenommen würde, könnten die anderen Verträge mit der EU unter Druck kommen. Das wiederum hätte Auswirkungen auf die Arbeitsplätze in der Schweiz. «Wenn die Schweiz die EU an den Verhandlungstisch zwingt, dann kann nicht nur eine Seite ihre Forderungen auf den Tisch bringen.» «Wir wollen der Schweiz keine Steine in den Weg mit der EU legen, sondern wir wollen lediglich eine Korrektur anbringen.» Amstutz fragt, ob die EU zu den Forschungsmillionen aus der Schweiz Nein sagen wolle. Oder wolle die EU etwa auf die Nordsüdverkehrsachse verzichten, die durch die Schweiz verlaufe? «Sollten die Verhandlungen scheitern, dann wird die Schweiz keine Bilateralen Verträge haben.» «Wenn wir keine Bilateralen Verträge haben, dann wäre der Schaden für die Wirtschaft immens», gibt SP-Nationalrätin Nadine Masshardt zu bedenken. Daher seien auch alle wirtschaftsnahen Verbände geschlossen gegen die Initiative. srf/galc;buev 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Im Schnitt wandern 70‘000 Menschen pro Jahr ein – so viele, wie die Stadt St. Gallen Einwohner zählt. Zu viele, findet die SVP. Mit ihrer Initiative will sie die Zuwanderung begrenzen. Die Gegner halten dagegen: Die Initiative gefährde den Wohlstand. 09.01.2014, 22:06 Am 9. Februar stimmt das Volk über die SVP-Initiative «Gegen die Masseneinwanderung» ab. Am Donnerstag trafen sich prominente Befürworter und Gegner in der alten Mühle Langenthal (BE). Die Sendung «Forum» von Radio SRF 1 übertrug die Debatte live. «Der Bundesrat ist gegen die Initiative», sagt Bundesrat Johann Schneider-Ammann. «Wir haben in der Schweiz Vollbeschäftigung und Wachstum, und das möchte ich nicht ändern.» SVP-Nationalrat Adrian Amstutz ist da anderer Meinung: «Es geht ums Mass.» In die Schweiz kämen jedes Jahr bald 80‘000 Zuwanderer. «Das ist zu viel. In dem Tempo kann es nicht weitergehen.» Bis im Jahr 2035 würde die Schweiz in Richtung zehn Millionen Einwohner steuern, wenn wir so weitermachten wie bisher. Das sage das Bundesamt für Statistik. Das Begehren der SVP verlangt: Der Staat soll festlegen, wie viele Personen aus welchem Land pro Jahr in die Schweiz ziehen oder hier arbeiten dürfen, die Grenzgänger und Asylsuchenden einbezogen. Die Initiative will die Personenfreizügigkeit mit der EU neu verhandeln. «Die Initiative löst keine Probleme», wirft SP-Nationalrätin Nadine Masshardt ein. Sie bringt die flankierenden Massnahmen ins Spiel, für die sich die Sozialdemokraten stark machen. Es müsse bei der Raumplanung angesetzt werden. Im Arbeitsmarkt brauche es einen Mindestlohn, mehr Investitionen im preisgünstigen Wohnungsbau. Und eine Bildungsoffensive für Fachkräfte müsse her. Für den SVP-Stadtrat von Langenthal, Patrick Freudiger, sind die flankierenden Massnahmen keine Lösung. Langenthal habe einen überdurchschnittlich hohen Ausländeranteil und sehr wenig freies Bauland. «Wir müssen in die Höhe bauen. Das bedeutet mehr Leute auf weniger Raum. Das schränkt die Lebensqualität ein.» Thimo Thimm ist deutscher Staatsbürger und Leiter Operationssäle Spital Langenthal. Eigentlich wollte er gar nicht explizit in die Schweiz kommen, wurde dann aber abgeworben. Für ihn ist klar: Die Schweiz braucht Fachkräfte aus dem Ausland, anders kommt sein Spital nicht an qualifiziertes Personal heran. Amstutz hält entgegen, dass die Schweiz zwar Vollbeschäftigung habe, aber die Arbeitslosenzahl seit 2001 gestiegen sei, und nicht gesunken. «Es findet trotz überhitzter Konjunktur ein Verdrängungskampf statt.» Etwa würden die Ex-Jugoslawen aus dem Arbeitsmarkt verdrängt, «und aufgefüllt durch junge Portugiesen.» Zudem würden dann die aus dem Arbeitsmarkt verdrängten Ausländer dem hiesigen Sozialwesen auf der Tasche liegen. «Die Arbeitslosenquote hat relativ gesehen zur Bevölkerung nicht zugenommen in den letzten Jahren», antwortet Bundesrat Schneider-Ammann. Auch habe laut Studien keine Verdrängung stattgefunden. «Die Personenfreizügigkeit hat bei den mittleren Löhnen bewirkt, dass nicht mehr das passiert ist, was hätte passieren können, wenn das Angebot weniger gross gewesen wäre. Bei den tieferen Löhnen stellten die Studien keine Nachteile fest.» Auch zu den hohen Mietpreisen nimmt der Bundesrat Stellung: «Für einzelne Hotspots wie Genf, Basel oder Zürich stimmt das.» Doch es gäbe im Land insgesamt Wohnmöglichkeiten zu vernünftigen Preisen. «Der Bundesrat behauptet immer, es läuft besser», sagt SVP-Nationalrat Adrian Amstutz. Die Frage gehe an jeden einzelnen. «Haben wir mehr im Portemonnaie? Geht es uns wirklich besser?» Doch wie viele Leute würden dann kommen, würde die Initiative angenommen? Adrian Amstutz: «Etwa 50‘000 wären meiner Meinung nach die obere Grenze.» Das lege die Wirtschaft fest. Über ein Drittel komme momentan in die Schweiz, nicht um hier zu arbeiten, sondern als Familiennachzug, so Amstutz. «Wenn Initiative angenommen wird, dann wächst die Bürokratie», so Schneider-Ammann. Die Firmen müssten prompt reagieren können, wenn sie Leute brauchten. Die Initiative bewirke, dass Investitionen heruntergefahren würden und es weniger Arbeitsplätze gebe. Der Bundesrat warnt zudem: Wenn die Initiative angenommen würde, könnten die anderen Verträge mit der EU unter Druck kommen. Das wiederum hätte Auswirkungen auf die Arbeitsplätze in der Schweiz. «Wenn die Schweiz die EU an den Verhandlungstisch zwingt, dann kann nicht nur eine Seite ihre Forderungen auf den Tisch bringen.» «Wir wollen der Schweiz keine Steine in den Weg mit der EU legen, sondern wir wollen lediglich eine Korrektur anbringen.» Amstutz fragt, ob die EU zu den Forschungsmillionen aus der Schweiz Nein sagen wolle. Oder wolle die EU etwa auf die Nordsüdverkehrsachse verzichten, die durch die Schweiz verlaufe? «Sollten die Verhandlungen scheitern, dann wird die Schweiz keine Bilateralen Verträge haben.» «Wenn wir keine Bilateralen Verträge haben, dann wäre der Schaden für die Wirtschaft immens», gibt SP-Nationalrätin Nadine Masshardt zu bedenken. Daher seien auch alle wirtschaftsnahen Verbände geschlossen gegen die Initiative. srf/galc;buev</t>
         </is>
       </c>
     </row>
@@ -1024,8 +1021,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>.   Für die Befürworter der «Pädophilen-Initiative» gibt es keinen «verhältnismässigen Umgang» mit pädosexuellen Straftätern. Diese sind ihrer Ansicht nach nicht heilbar und dürfen deshalb nie mehr mit Kindern oder abhängigen Personen arbeiten. 25.03.2014, 17:25 Dass Kinder besser vor Pädophilen geschützt werden müssen, ist quer durch alle politischen Lager unbestritten. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» verlangt, dass pädosexuelle Straftäter unabhängig von der Schwere der Straftat lebenslang jede Tätigkeit mit Minderjährigen oder Abhängigen verboten werden soll. Die Gegner der Initiative kritisieren aber, dass damit der rechtliche Grundsatz der Verhältnismässigkeit nicht respektiert wird. Zu diesem Punkt äusserte sich in Bern das überparteiliche Komitee für die Initiative: Bei Pädophilen dürfe es keinen Ermessensspielraum geben, sagte der parteilose Schaffhauser Ständerat Thomas Minder an der Medienkonferenz. «Es gibt keine Graustufen in dem Bereich.» Für Nationalrat Bernhard Guhl (BDP/AG) sind Pädophile nicht heilbar. Sie könnten lediglich lernen, mit ihrer Neigung umzugehen. «Dazu gehört, Orte mit Kindern zu meiden.» Auch andere Mitglieder des Komitees sehen die Verhältnismässigkeit gewahrt. Das lebenslange Berufs- und Tätigkeitsverbot betreffe lediglich Tätigkeiten mit Kindern und abhängigen Personen, sagte Ständerätin Brigitte Häberli-Koller (CVP/TG). Verurteilten Straftätern werde es auch in Zukunft möglich sein, einer beruflichen Tätigkeit nachzugehen. Auch der ehemalige Tessiner Staatsanwalt Paolo Bernasconi sieht die Verhältnismässigkeit gewahrt. Auf der einen Seite stehe das Berufsverbot in einem beschränkten Bereich, auf der anderen der Schutz von Kindern vor schwersten Eingriffen. «Ich sehe nicht, wo das Problem liegt,» sagte der Anwalt. Bundesverfassung Art. 123c (neu) «Personen, die verurteilt werden, weil sie die sexuelle Unversehrtheit eines Kindes oder einer abhängigen Person beeinträchtigt haben, verlieren endgültig das Recht, eine berufliche oder ehrenamtliche Tätigkeit mit Minderjährigen oder Abhängigen auszuüben.» Nach Ansicht des Bundesrats liegt das Problem bei leichten Delikten, wenn feststeht, dass vom Täter keine Gefahr für Kinder ausgeht. Der 20-Jährige etwa, der eine einvernehmliche Liebesbeziehung mit einer 15-Jährigen hat, dürfte im Fall einer Verurteilung nie mehr als Lehrer oder Fussballtrainer arbeiten. «Die Initianten wollen solche Fälle explizit nicht erfassen», sagte Nationalrätin Natalie Rickli (SVP/ZH). Das könne im Ausführungsgesetz entsprechend geregelt werden. Das überparteiliche Komitee legte auch gleich einen ausformulierten Text vor: Dieser sieht vor, dass von einem lebenslangen Berufs- oder Tätigkeitsverbot abgesehen werden kann, wenn dieses unverhältnismässig wäre. Damit wäre der Verhältnismässigkeit in der Umsetzung Genüge getan. Ob der Verfassungsartikel so umgesetzt werden kann, ist jedoch offen. Laut Justizministerin Simonetta Sommaruga lässt der eindeutige Wortlaut des Verfassungsartikels keinen Spielraum für Relativierungen. Der Bundesrat lehnt die Initiative auch darum ab, weil das Anliegen seiner Meinung nach schon im Gesetz umgesetzt ist. Das Parlament hat in der Wintersession eine Revision des Strafgesetzbuchs beschlossen, die ebenfalls ein Berufs- und Tätigkeitsverbot für Sexual- und Gewaltstraftäter vorsieht. Dieses kann lebenslänglich ausgesprochen werden. Auch Kontakt- oder Rayonverbote können verhängt werden. Die Bestimmungen treten voraussichtlich Anfang 2015 in Kraft. Für die Befürworter der Initiative ist dies jedoch zu schwammig. Sie befürchten, dass die unbestimmten Rechtsbegriffe zu Gunsten der Täter ausgelegt werden könnten. Die Initiative hingegen sei klar formuliert, sagte Rickli. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» der Organisation «Marche Blanche», über die am 18. Mai abgestimmt wird, war im April 2011 eingereicht worden. Im Initiativkomitee finden sich Politikerinnen und Politiker aller Parteien, darunter CVP-Präsident Christophe Darbellay (VS) und die Zürcher SP-Nationalrätin Chantal Galladé. Im Nationalrat hatten SP und Grüne die Initiative bekämpft, die SVP sprach sich dafür aus. Die Mitte-Parteien sind gespalten, die Befürworter sind jedoch in der Überzahl. Auf eine gemeinsame Abstimmungsempfehlung konnten sich die Parlamentskammern nicht einigen: Während sich der Ständerat gegen die Initiative aussprach, stimmte ihre der Nationalrat implizit zu. Der Bundesrat lehnt die Initiative ab. Tagesschau/sda/kurn;hesa 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Für die Befürworter der «Pädophilen-Initiative» gibt es keinen «verhältnismässigen Umgang» mit pädosexuellen Straftätern. Diese sind ihrer Ansicht nach nicht heilbar und dürfen deshalb nie mehr mit Kindern oder abhängigen Personen arbeiten. 25.03.2014, 17:25 Dass Kinder besser vor Pädophilen geschützt werden müssen, ist quer durch alle politischen Lager unbestritten. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» verlangt, dass pädosexuelle Straftäter unabhängig von der Schwere der Straftat lebenslang jede Tätigkeit mit Minderjährigen oder Abhängigen verboten werden soll. Die Gegner der Initiative kritisieren aber, dass damit der rechtliche Grundsatz der Verhältnismässigkeit nicht respektiert wird. Zu diesem Punkt äusserte sich in Bern das überparteiliche Komitee für die Initiative: Bei Pädophilen dürfe es keinen Ermessensspielraum geben, sagte der parteilose Schaffhauser Ständerat Thomas Minder an der Medienkonferenz. «Es gibt keine Graustufen in dem Bereich.» Für Nationalrat Bernhard Guhl (BDP/AG) sind Pädophile nicht heilbar. Sie könnten lediglich lernen, mit ihrer Neigung umzugehen. «Dazu gehört, Orte mit Kindern zu meiden.» Auch andere Mitglieder des Komitees sehen die Verhältnismässigkeit gewahrt. Das lebenslange Berufs- und Tätigkeitsverbot betreffe lediglich Tätigkeiten mit Kindern und abhängigen Personen, sagte Ständerätin Brigitte Häberli-Koller (CVP/TG). Verurteilten Straftätern werde es auch in Zukunft möglich sein, einer beruflichen Tätigkeit nachzugehen. Auch der ehemalige Tessiner Staatsanwalt Paolo Bernasconi sieht die Verhältnismässigkeit gewahrt. Auf der einen Seite stehe das Berufsverbot in einem beschränkten Bereich, auf der anderen der Schutz von Kindern vor schwersten Eingriffen. «Ich sehe nicht, wo das Problem liegt,» sagte der Anwalt. Bundesverfassung Art. 123c (neu) «Personen, die verurteilt werden, weil sie die sexuelle Unversehrtheit eines Kindes oder einer abhängigen Person beeinträchtigt haben, verlieren endgültig das Recht, eine berufliche oder ehrenamtliche Tätigkeit mit Minderjährigen oder Abhängigen auszuüben.» Nach Ansicht des Bundesrats liegt das Problem bei leichten Delikten, wenn feststeht, dass vom Täter keine Gefahr für Kinder ausgeht. Der 20-Jährige etwa, der eine einvernehmliche Liebesbeziehung mit einer 15-Jährigen hat, dürfte im Fall einer Verurteilung nie mehr als Lehrer oder Fussballtrainer arbeiten. «Die Initianten wollen solche Fälle explizit nicht erfassen», sagte Nationalrätin Natalie Rickli (SVP/ZH). Das könne im Ausführungsgesetz entsprechend geregelt werden. Das überparteiliche Komitee legte auch gleich einen ausformulierten Text vor: Dieser sieht vor, dass von einem lebenslangen Berufs- oder Tätigkeitsverbot abgesehen werden kann, wenn dieses unverhältnismässig wäre. Damit wäre der Verhältnismässigkeit in der Umsetzung Genüge getan. Ob der Verfassungsartikel so umgesetzt werden kann, ist jedoch offen. Laut Justizministerin Simonetta Sommaruga lässt der eindeutige Wortlaut des Verfassungsartikels keinen Spielraum für Relativierungen. Der Bundesrat lehnt die Initiative auch darum ab, weil das Anliegen seiner Meinung nach schon im Gesetz umgesetzt ist. Das Parlament hat in der Wintersession eine Revision des Strafgesetzbuchs beschlossen, die ebenfalls ein Berufs- und Tätigkeitsverbot für Sexual- und Gewaltstraftäter vorsieht. Dieses kann lebenslänglich ausgesprochen werden. Auch Kontakt- oder Rayonverbote können verhängt werden. Die Bestimmungen treten voraussichtlich Anfang 2015 in Kraft. Für die Befürworter der Initiative ist dies jedoch zu schwammig. Sie befürchten, dass die unbestimmten Rechtsbegriffe zu Gunsten der Täter ausgelegt werden könnten. Die Initiative hingegen sei klar formuliert, sagte Rickli. Die Initiative «Pädophile sollen nicht mehr mit Kindern arbeiten dürfen» der Organisation «Marche Blanche», über die am 18. Mai abgestimmt wird, war im April 2011 eingereicht worden. Im Initiativkomitee finden sich Politikerinnen und Politiker aller Parteien, darunter CVP-Präsident Christophe Darbellay (VS) und die Zürcher SP-Nationalrätin Chantal Galladé. Im Nationalrat hatten SP und Grüne die Initiative bekämpft, die SVP sprach sich dafür aus. Die Mitte-Parteien sind gespalten, die Befürworter sind jedoch in der Überzahl. Auf eine gemeinsame Abstimmungsempfehlung konnten sich die Parlamentskammern nicht einigen: Während sich der Ständerat gegen die Initiative aussprach, stimmte ihre der Nationalrat implizit zu. Der Bundesrat lehnt die Initiative ab. Tagesschau/sda/kurn;hesa</t>
         </is>
       </c>
     </row>
@@ -1067,8 +1063,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das will die Pädophilen-Initiative, die am 18. Mai zur Abstimmung kommt. Die Gegner der Vorlage glauben, das Gesetz, welches 2015 in Kraft tritt, sei umfassender als die Initiative. Die Befürworter wollen eine Verschärfung. 02.05.2014, 22:53 Für Bundesrätin Simonetta Sommaruga gibt es einen einfachen Grund, warum diese Initiative abzulehnen sei: «Es gibt seit kurzem ein Gesetz, mit dem man Kinder besser und umfassender schützen kann. Das heisst, die Initiative ist überholt.» Die Initiantin und Zürcher SVP-Nationalrätin Natalie Rickli sieht das anders. Das Gesetz gehe in die richtige Richtung, sagte sie. Aber leichtere Sexualdelikte, bei denen nicht Gewalt angewendet würde und Urteile wegen Pornographie seien mit dem Gesetz nicht erfasst. Somit könne man das Gesetz entsprechend mit einem lebenslangen Berufsverbot ergänzen. Auf der Pro-Seite: Auf der Contra-Seite: Dem widersprach die Justizministerin erneut: Das Gesetz schütze Kinder besser und umfassender. Das Gesetz stelle die Frage, ob ein Täter gefährlich sei. «Und wenn man dies bejaht, dann kann man ihm auch eine lebenslängliche Tätigkeit mit Kindern verbieten», erklärte die EJPD-Vorsteherin. Die Initiative werfe alle in den gleichen Topf und das sei mit der Verhältnismässigkeit nicht zu vereinbaren. Die Verhältnismässigkeit war auch ein Anliegen von Nationalrat Andrea Caroni (FDP/AR). Ihm liege der Rechtsstaat am Herzen, der die Massnahmen ergreife, die nötig seien. Man müsse mit Augenmass handeln – und das mache die Initiative nicht. «Sie unterscheidet nicht zwischen Pädokriminellen und anderen Sexualdelikten», betonte der Rechtsanwalt. Zu den Befürwortern der Initiative gehört BDP-Präsident Martin Landolt. Er gab in der «Arena» zu bedenken, dass das Gesetz in Erwägung ziehe, einem verurteilten Pädokriminellen noch eine zweite Chance zu geben. «Dieses Risiko will ich nicht eingehen», so der Glarner Nationalrat. Einigkeit bestand in der Runde, dass der Schutz der Kinder oberste Priorität hat. «Die Übergriffe finden aber zu einer grossen Mehrheit im Bekannten- und Freundeskreis statt und da hilft die Initiative nicht weiter», betonte Sommaruga. Beim künftigen Gesetz hingegen sei zum Beispiel ein Kontaktverbot – auch übers Internet – vorgesehen. Dieses Verbot werde auch mit Fussfesseln überprüft. In der Frage der Verhältnismässigkeit gingen in der Debatte ebenfalls die Wogen hoch. Caroni betonte, dass im Initiativtext das Wort Pädophile gar nicht erwähnt wird und verglich die Initiative mit einer Schrotflinte. «Man schiesst auf Pädokriminelle und trifft aber auch andere.» Sehr oft erwähnt wurde auch der Fall der Jugendliebe. Also die Liebe zwischen Minderjährigen. Hier versuchte Rickli zu erklären, dass diese nicht unter den Initiativtext falle und somit erlaubt sei. Doch die Justizministerin sagte klipp und klar: «Sexuelle Handlungen mit Minderjährigen sind strafbar. Das ist richtig so und ich will nicht, dass das ändert.» In diesem Zusammenhang sei die Frage zu diskutieren, ob dies automatisch zu einem lebenslänglichen Tätigkeitsverbot führe oder nicht. Das Dilemma der Initiative sei, dass Bagatellfälle und schwere Vergehen in einen Topf geworfen würden, erklärte die SP-Bundesrätin. Nach einer allfälligen Annahme der Initiative stehe dann der Gesetzgeber vor der Frage, ob er sich an den Verfassungstext halte und somit die Bagatellfälle mit einbeziehe oder ob er vom Volkswillen abweiche und sich dann heftige Kritik der Initianten anhören müsse. In der Diskussion um die Verhängung eines lebenslänglichen Berufsverbotes für verurteilte Pädokriminelle wurde von Rickli die Frage aufgeworfen, warum ein solcher Täter nach 10 Jahren wieder seinen Beruf ausüben dürfe – wie es das Gesetz erlaube – wenn Pädophilie nicht heilbar sei. «Täter, die Kinder missbrauchen, haben es endgültig verwirkt, weiter mit Kindern arbeiten zu dürfen. Es besteht eine permanente Wiederholungsgefahr. Die zweite Chance für den Täter ist ein Risiko für potenzielle neue Opfer», so die Zürcher Nationalrätin. Ein klärendes Wort sprach die forensische Psychologin Monika Egli-Alge: «Pädophilie ist eine Störung der sexuellen Präferenz, eine Festlegung einer sexuellen Orientierung. Ob man diese heilen muss, würde ich in Frage stellen.» Die Orientierung sei festgelegt und somit nicht veränderbar. Was aber veränderbar sei, sei das sexuelle Verhalten. Nicht jeder Mensch, der an einer Pädophilie leide, missbrauche automatisch Kinder. Umgekehrt gelte das auch: Nicht alle, die Kinder missbrauchen, seien Pädophile. Allein schon der Begriff Pädophilen-Initiative irritiere, betont Egli-Alge weiter. Der Begriff sei zu unpräzis. Caroni brach eine Lanze für die Richter. Einerseits stehe im Gesetz, dass der Richter ein lebenslanges Berufsverbot ausprechen dürfe. Andererseits müsse man Vertrauen in die Justiz haben. Bundesrätin Sommaruga doppelte nach: «Wir brauchen eine dritte Gewalt in diesem Staat, eine Justiz, die regelmässig prüfen muss und kann, ob eine Person gefährlich ist.» Teilen Sie ihre Meinung im «Arena»-Forum mit. SVP-Nationalrätin Rickli wollte dies nicht so hinnehmen. Gutachten und Richter würden zu oft versagen, sagte Rickli und BDP-Präsident Landolt meinte in diesem Zusammenhang: «Wir ruinieren einem Täter nicht das Leben, wir sagen nur, Du darfst nicht mehr mit Kindern zusammenarbeiten.» Zum Schluss bemerkte Arena-Moderatorin Sonja Hasler, dass sie einen Trend zur Verschärfung der Gesetzgebung feststelle. Dies sei auch bei der Verwahrungsinitiative der Fall gewesen. Überall würden Maximalstrafen gefordert. Diese Entwicklung ist für Andrea Caroni eine Verrohung eines Grundwerts der Gesellschaft – der Verhältnismässigkeit. Rickli hielt dagegen, dass es in der Rechtssprechung bei Sexualstraftaten nicht stimme. 70 Prozent aller Sexualstraftäter müssten nicht ins Gefängnis. Da müsse man sich nicht wundern, dass man Maximalstrafen fordere. srf/horm;krua</t>
         </is>
       </c>
     </row>
@@ -1110,8 +1105,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Verurteilte Pädophile sollen nie mehr mit Kindern arbeiten dürfen. Das verlangt die Volksinitiative der Vereinigung «Marche Blanche». Am 18. Mai kommt sie vors Volk. Die Initiative geniesst viel Sympathie in der Politik – dem Bundesrat aber geht sie zu weit.  Das Verbot würde gemäss der «Pädophilen-Initiative» ein Leben lang gelten: Wer ein sexuelles Verbrechen an einem Kind oder an einer abhängigen Person wie einem Behinderten verübt hat, dürfte nie mehr Kinder unterrichten oder Behinderte betreuen. Freizeittätigkeiten als Pfadi-Leiter oder Fussball-Junioren-Trainer wären ebenfalls verboten. «Verurteilte Täter, die sich an Kindern vergangen haben, sind für mich ganz klar potenzielle Wiederholungstäter», sagt SVP-Nationalrätin Natalie Rickli als eine der aktivsten Befürworterinnen der Pädophilen-Initiative. Darum müssten Kinder geschützt werden. «Die Fachleute bestätigen es: Pädophile sind nicht heilbar. Und darum braucht es die Initiative.» Das automatische und zwingende Tätigkeitsverbot der «Pädophilen-Initiative» mache keinen Unterschied, ob es sich um einen hochgefährlichen Sexualstraftäter handle oder nicht, stellt Justizministerin Simonetta Sommaruga fest. Und das verstosse gegen den Rechtsstaat und vor allem gegen das Verhältnismässigkeitsprinzip. Sommaruga warnt, dass die Initiative auch bei sexuellen Beziehungen zwischen jungen Erwachsenen und nur wenig jüngeren Minderjährigen greife: «Ein 20-Jähriger, der eine einvernehmliche Liebesbeziehung mit einer knapp 16-Jährigen hat, müsste zwingend dazu verurteilt werden, dass er ein Leben lang nie mehr eine Juniorenmannschaft trainieren kann. Das geht viel zu weit.» «Falsch», entgegnet Rickli und weist darauf hin, dass Ausnahmen wie etwa bei einer Jugendliebe im Ausführungsgesetz entsprechend geregelt werden könnten. Die «Pädophilen-Initiative» ist brandaktuell, das Thema hoch emotional, die Erfolgschancen sind gross. Die Initiative hat aber auch einiges in Bewegung gebracht: Das Parlament hat bereits mit einer Gesetzesrevision bereits entschieden: Auch ohne die Initiative sind künftig lebenslange Tätigkeitsverbote möglich – es entscheiden aber die Gerichte. Bei Sexualverbrechern mit einer Freiheitsstrafe von über einem halben Jahr müsste ein mindestens 10-jähriges Verbot verhängt werden. Das sei der richtige Weg, sagt Sommaruga: «Im Sinne einer glaubwürdigen direkten Demokratie sollten wir uns daran halten, was am Schluss auch umsetzbar ist. Dafür haben wir das neue Gesetz gemacht.» Die neue Regelung gehe in manchen Punkten gar weiter als die Initiative, erklärt Sommaruga weiter: «Gerichte können Tätern verbieten, Kontakt mit früheren Opfern zu haben oder sich einem Schulhaus zu nähern.» Rickli räumt ein, dass das Gesetz «absolut in die richtige Richtung» gehe mit den Kontakt- und Rayonverboten. Bei pädophilen Straftätern genüge das Gesetz aber nicht. «Wer ein Kind missbraucht hat, soll lebenslänglich nicht mehr mit diesen arbeiten dürfen.» Lebenslange Verbote für pädophile Straftäter oder Ermessensspielraum für Richter? Das ist die rechtsstaatlich brisante Frage. Selbst innerhalb der Parteien gehen die Meinungen auseinander. National- und Ständerat konnten sich gar nicht erst auf eine Parole einigen. Die Abstimmung ist in 8 Wochen. brut;kurn Basel Baselland</t>
         </is>
       </c>
     </row>
@@ -1432,8 +1426,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>.   Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die Initiative «Millionen-Erbschaften besteuern für unsere AHV» hat zum Ziel, das so genannte Volksvermögen in der Schweiz anders zu verteilen. Die Ärmeren sollen von den Erbschaften der Begüterten via AHV profitieren. Und Nachlässe von weniger als zwei Millionen Franken wären steuerfrei.  Das private Volksvermögen in der Schweiz beträgt laut dem Initiativkomitee 15‘000 Milliarden Franken. Davon gehörte im Jahr 2011 ein Anteil von 40 Prozent einem einzigen Prozent der Steuerzahlenden. Nimmt man die zwei reichsten Prozent der Steuerpflichtigen, besitzen sie einen Anteil von 50 Prozent am Volksvermögen in der Schweiz. Diese Berechnungen stammen von Angaben des eidgenössischen Steueramts, des Global Wealth Report der Credit Suisse und Magazins «Bilanz». Dagegen besitzen rund 56 Prozent der Steuerpflichtigen gemäss der Steuerverwaltung weniger als 50‘000 Franken Vermögen, und 26 Prozent der Steuerpflichtigen besitzen überhaupt kein Vermögen. Diese Verteilung des Vermögens sei ungerecht, schreibt das Initiativkomitee der Erbschaftssteuer-Initiative. Es sieht einen Ansatz in der Reform des Erbschaftssteuerrechts mit rückwirkenden Bestimmungen zur Schenkungssteuer. Der Vorschlag will ab einem Erbe von zwei Millionen Franken eine nationale Erbschaftssteuer einführen, die 20 Prozent betragen und deren Ertrag zu zwei Dritteln in die AHV fliesst und zu einem Drittel an die Kantone geht. Für KMUs und Landwirtschaftsbetriebe sollen andere Regeln gelten. Die bis anhin geltenden kantonalen Erbschafts- und Schenkungssteuern würden damit aufgehoben. Die Kantone würden die Finanzautonomie in diesem Bereich verlieren. Dass die direkten Nachkommen eines Erblassers bei Beträgen von über zwei Millionen nicht mehr steuerfrei beerbt würden, erachtet das Komitee als richtig; damit werde eine breitere Verteilung des Besitzes angestrebt. Denn die Steuerbefreiung von Abkömmlingen führe zu einer Konzentration des Vermögens in einzelnen Familien. Um Familienunternehmen und KMU von diesem Effekt bewusst auszunehmen, wird das Parlament nach Annahme der Initiative einen Vererbungsfreibetrag festlegen, der gewährleistet, dass kleine und mittlere Betriebe steuerfrei an die nächste Generation übertragen werden können. Entlastet würden bei Annahme der Initiative die kleinen und mittleren Erbschaften Dritter; da nur Nachlässe von mehr als zwei Millionen Franken besteuert würden, fielen sie unter diese Grenze. Der Bundesrat und das Parlament haben sich gegen die Initiative entschieden. Zwar erhielte die AHV von der Erbschafts- und Schenkungssteuer einen Zustupf, doch damit könnten die Finanzierungsprobleme nicht gelöst werden. Der Bundesrat hingegen wolle eine dauerhafte und nachhaltige Lösung für die AHV, wie er im Abstimmungsbüchlein schreibt. Die Einschränkung der Finanzhoheit der Kantone will der Bundesrat nicht hinnehmen. Und er ist der Meinung, dass mit einer Regelung, wie sie das Initiativkomitee vorsieht, die Entscheidung der Kantone, direkte Abkömmlinge von einer Erbschaftssteuer zu befreien, umgangen wird. Die Einführung einer einheitlichen Steuer von 20 Prozent auf Erbschaften von über zwei Millionen Franken würde bei den meisten Erbgängen zu einer höheren Steuerbelastung, und schlimmstenfalls würden die vermögenden Personen deshalb aus der Schweiz wegziehen oder gar nie in die Schweiz ziehen wollen, schreibt der Bundesrat. Auf den Standort Schweiz würde sich eine solche Entwicklung deshalb negativ auswirken. Aus 10 vor 10 vom 11.05.2015, 21:50 Uhr</t>
         </is>
       </c>
     </row>
@@ -1475,8 +1468,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>.   An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   An der Abstimmungsvorlage zur nationalen Erbschaftssteuer scheiden sich die Geister, nicht nur in der Politik. Auch Ökonomen  streiten: Für die einen ist die Initiative wirtschaftsfeindlich. Für andere ist sie das Rezept, modernen Erbadel zu verhindern – und damit wahrhaft liberal.  20 Prozent Steuern soll der Staat bei allen Erbschaften ab zwei Millionen Franken abzweigen. Das wirke der ungleichen Verteilung der Vermögen in der Schweiz entgegen, sagen die Initianten der Abstimmungsvorlage, die am 14. Juni vors Volk kommt. Ein urliberales Anliegen sei das. Von der Idee her sei das Vorhaben liberal, bestätigt Georg Kohler. «Jedenfalls gilt, dass die Erbschaftssteuer nicht per se illiberal ist», so der pensionierte Professor für Politische Philosophie der Universität Zürich. Denn hohe Erbschaften seien, wie früher, die Privilegien des Adels: Man erwarb sie durch Geburt statt durch eigene Leistung. «Die liberalen Denker brandmarkten das als ungerecht», erklärt Kohler, welcher der FDP nahe steht. «Die Grundidee der Liberalen – Freiheit und Gleichheit jedes Einzelnen, verknüpft mit der Idee eines vernünftigen Rechtsstaates – zielte auf die Abschaffung aller Privilegien.» Deshalb passe es nicht zu den liberalen Prinzipien, wenn die Kinder reicher Eltern unverdient Millionenvermögen erben, ohne etwas davon an die Allgemeinheit abzugeben, sagt Kohler. Mit gutem Grund also, erheben fast alle Schweizer Kantone seit langer Zeit eine Erbschaftssteuer. Daniel Lampart ist Chefökonom des Schweizerischen Gewerkschaftsbundes. «In der Schweiz war es über mehr als 100 Jahre völlig normal, dass Söhne und Töchter aus reichen Haushalten im Erbfall auch ihren Beitrag an den Staat leisteten», sagt er. «Vor 15 Jahren wurde das abgeschafft. Jetzt leisten sie gar nichts mehr, das ist ungerecht. Diesen Fehler muss man wieder korrigieren.» Künftig müsse der Bund die direkten Nachkommen beim Erben wieder zur Kasse bitten. Wirtschaftsprofessor Reiner Eichenberger von der Universität Freiburg widerspricht. Er will an den heutigen, kantonalen Erbschaftssteuern festhalten. Die kantonalen Erbschaftssteuern seien hoch in der Schweiz, sie brächten im internationalen Vergleich sehr viel Geld. «Das ist eine gute Steuer», sagt er. Die nationale Erbschaftssteuer hingegen, sei «eine sehr schlechte Steuer mit grauenhaften Folgen für die Volkswirtschaft.» Laut Eichenberger käme damit unter dem Strich weniger Geld zusammen, als mit der kantonalen Steuer. Der Wirtschaftsprofessor stört sich nicht am Prinzip. Vielmehr findet er die praktische Umsetzung dieser neuen, nationalen Steuer verfehlt. Dabei denkt er zum Beispiel an die Ausnahmen und Rabatte für Familienunternehmen. Gerade reiche Familien könnten sie als Schlupfloch missbrauchen, um am Ende gar keine Erbschaftssteuer zu zahlen. Dass die einen ab zwei Millionen Franken 20 Prozent bezahlen und die anderen, die eine Firma vererben, ab 50 Millionen Franken nur fünf Prozent abgeben, sei ungerecht, findet der Wirtschaftsprofessor. «Wie kann man nur so viel Ungerechtigkeit produzieren?», fragt er. Das sei nicht ungerecht, sondern ganz im Sinne der Schweizer Wirtschaft, kontert Gewerkschaftsökonom Lampart. Den Initianten gehe es doch darum, die Arbeitsplätze bei den Familienunternehmen zu schützen. Darunter befänden sich viele KMU. «Der neue Artikel sagt, dass Firmen durch diese Initiative in ihrer Existenz nicht gefährdet sein sollen.» Das sei in Fällen sinnvoll, wo es wirklich Probleme gebe, so Lampart. Er spricht von einer Absicherung, sagt aber, dass in der Realität die wenigsten Firmen wirklich in Schwierigkeiten kommen könnten. «Das Parlament wird ein Gesetz erlassen und wir müssen schauen, dass nicht zu grosse Löcher in die Initiative geschlagen werden.» Der Streit der Ökonomen zeigt: Mit der Berufung auf liberale Prinzipien ist es nicht getan. Entscheidend ist die Wirkung in der Praxis. Die Befürworter sind überzeugt, die Reform schaffe grössere Fairness beim Vererben von Millionenvermögen. Die Gegner stellen genau das in Zweifel. Erbschaftssteuer-Initiative Erbschaftssteuer-Initiative Schweiz Erbschaftssteuer-Initiative International</t>
         </is>
       </c>
     </row>
@@ -1699,8 +1691,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>.   Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Eine Annahme von «No Billag» würde die Schweizer Medienlandschaft stark verändern. Unklar ist bloss, wie genau.  Für Otfried Jarren, Professor für Publizistik an der Universität Zürich, ist klar: Bei einem Ja zu «No Billag» würde die Schweizer Medienlandschaft fundamental umgewälzt. «Die Qualität des sehr hohen Informationsangebots in der Schweiz würde mit Sicherheit relativ rasch sinken», sagt er. Die Möglichkeiten, sich unabhängig und uneingeschränkt zu informieren, würden kleiner. Für Jarren wäre dies ein «Rückschritt» und im europäischen Vergleich eine «Isolationsposition». Betroffen wäre die SRG mit ihren Radio- und Fernsehsendern, betroffen wären aber auch 34 private Radio- und Fernsehstationen, die heute aus dem Gebührentopf insgesamt 67 Millionen Franken pro Jahr erhalten und im Schnitt ihr halbes Budget damit bestreiten. Bei einer Schrumpfung oder gar einem Wegfall der SRG entstünde ein Vakuum, sagt Diego Yanez. Er ist ehemaliger Chefredaktor des Schweizer Fernsehens und Vorstandsmitglied des Komitees «Nein zum Sendeschluss», das gegen «No Billag» kämpft: «In Zukunft hätten nur noch ausgesprochen kommerzielle Sendungen eine Chance.» Yanez glaubt nicht, dass die Schweizer Privatsender von dem Vakuum profitieren würden, sondern es wären deutsche, französische und italienische Sender, die in die Bresche springen würden. Ganz anders sehen das die Initianten: Die SRG könnte auch ohne Gebühren weiterbestehen, sagt Mitinitiant Andreas Kleeb. Eine «reduzierte und freigelassene» SRG habe eine grosse Zukunft und könne ein sehr innovativer Betrieb werden. «Wie das schon die Post und die Swisscom konnten». Laut Kleeb soll sich die SRG einerseits mit Werbung finanzieren, auch am Radio. Zudem könnte die SRG, so Kleeb, Abonnemente für einzelne Sendungen wie «Tagesschau» oder «Echo der Zeit» verkaufen. Die SRG solle ihre «tollen Produkte, die im Markt nachgefragt werden» also mittels Pay-TV und Pay-Radio weiterhin an kaufwillige Zuschauer und -hörer anbieten. «Es gibt global keine Beispiele dafür, dass über Pay Vollprogramme finanziert werden können», sagt Publizistikprofessor Otfried Jarren. Insbesondere ein umfassendes Informationsangebot mit einem Korrespondentennetz sei teuer und nicht rentabel. Hinzu kommt, dass die Schweiz ein mehrsprachiges Land ist: Heute finanzieren die Deutschschweizer Gebührenzahler die SRG-Angebote in den anderen Sprachregionen mit. Diese Unterstützung fiele bei der Annahme der Initiative weg. «No Billag»-Mitinitiant Kleeb dagegen glaubt nicht an einen Kahlschlag in den anderen Sprachregionen: Diese würden heute von der SRG überversorgt: «Eine Gesundschrumpfung ist angesagt», sagt er. Das Ziel sei, dass die Bürgerinnen und Bürger nur für jene Medien bezahlen müssten, die sie auch wirklich nutzen. Gut aufbereitete Information sei ein öffentliches Gut, betont hingegen Jarren. Deshalb sollten die Medien auch von der Allgemeinheit unterstützt werden. Denn Informationen müssten allen zugänglich sein: «Es geht nicht nur um die Politik. Es geht auch um die Entscheidung, wo ich mein Geld anlege oder welche Krankenkasse ich besser oder schlechter finde.» Das alles seien Informationen, die für den Lebensalltag der Leute genauso relevant seien wie die Politik. Diese Informationen stünden nicht einfach so zur Verfügung. «Sie müssen erzeugt werden, und das kostet nun einmal Geld», sagt Jarren. Wie es bei einem Ja am 4. März genau weitergehen würde, ist umstritten: Der Initiativtext schreibt vor, dass der Bund ab dem 1. Januar 2019 keine Radio- und Fernsehgebühren mehr einziehen darf. Doch im Grunde muss eine erfolgreiche Initiative erst vom Parlament mit einem Gesetz umgesetzt werden. Das dauert normalerweise zwei bis drei Jahre. Was in der Zwischenzeit passieren würde, sei völlig unklar, so Professor Jarren. Klar sei einzig, dass die Stimmbevölkerung mit einem Ja zu «No Billag» einiges an Ungewissheit in Kauf nehme. Demokratie in Gefahr? Kampagnen zu «No Billag» «No Billag»-Initiative Aus Arena vom 18.12.2015, 22:26 Uhr Aus Arena vom 03.11.2017, 22:26 Uhr Aus Arena vom 05.01.2018, 22:24 Uhr</t>
         </is>
       </c>
     </row>
@@ -1839,8 +1830,7 @@
         <is>
           <t>.   16.10.2018, 09:24 Legende:
                 Schon fast ein seltenes Bild: Kühe mit Hörnern: Heute sind fast 90 Prozent der Kühe in der Schweiz enthornt.
-                    Keystone Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                    Keystone Die Hornkuh-Initiative könnte den Tieren mehr schaden als nützen, warnt Landwirtschaftsminister Johann Schneider-Ammann. Heute würden immer mehr Tiere in Freilaufställen gehalten, wo sie mehr Bewegungsfreiheit hätten. Da sei es sicherer, Tiere ohne Hörner zu haben. Tiere mit Hörnern hingegen würden mehrheitlich in Anbindeställen gehalten. «Die Initiative wäre in Bezug auf das Tierwohl ein Eigengoal», so Schneider-Ammann. Die Hornkuh-Initiative kommt am 25. November an die Urne. Sie verlangt, dass Halterinnen und Halter von horntragenden Kühen, Zuchtstieren, Ziegen und Zuchtziegenböcken finanziell unterstützt werden. Den Initianten um den Bergbauern Armin Capaul geht es um die Würde des Tiers. Ihrer Meinung nach ist das Horn ein Sinnes- und Stoffwechselorgan. Dieses wird den Kälbern und Kitzen im Alter von etwa zwei Wochen mit einem auf 700 Grad erhitzten Eisen ausgebrannt. Laut Schneider-Ammann gibt es jedoch keinen wissenschaftlichen Beweis, dass die Tiere unter der Enthornung leiden oder dass ihr Wohlergehen und ihre Gesundheit beeinträchtigt werden. «Enthornung schadet den Tieren nicht», sagte er. Die Initiative würde hingegen den Bauern schaden. Schneider-Amman warnte davor, deren unternehmerische Freiheit einzuschränken. Die Landwirte müssten selber entscheiden können, ob auf ihrem Betrieb Tiere mit oder ohne Hörner gehalten würden. Zudem müssten die Subventionen für horntragende Tiere andernorts eingespart werden. «Eine Kompensation im Landwirtschaftsbudget zu finden, dürften nicht einfach sein.» Laut Schneider-Ammann geht es je nach Umsetzung und Entwicklung in der Tierhaltung um 10 Millionen bis 30 Millionen Franken. Die Initianten sprechen von 15 Millionen Franken. «Das Anliegen mag sympathisch klingen, hätte aber negative Folgen für die Tiere und für die Bäuerinnen und Bauern», sagte der Landwirtschaftsminister. Die Mehrheit des Stimmvolks ist bisher anderer Meinung. Gemäss ersten Umfragen würde die Initiative angenommen. SRF 4 News, 11:00 Uhr; awp/morr; Ästhetik versus Vernunft Viehzucht im Wandel Hornkuh-Initiative</t>
         </is>
       </c>
     </row>
@@ -1882,8 +1872,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>.   In den Augen des Gegenkomitees bedeutet die SVP-Initiative eine Gefahr für die Schweiz. 04.10.2018, 11:17 Vereint gegen die «Selbstbestimmungs»-Initiative der SVP: Vertreter von Parteien, Wirtschaft und Zivilgesellschaft treten gemeinsam gegen die Initiative an. In ihren Augen bedeutet das Begehren eine Gefahr für die Schweiz. Die SVP-Volksinitiative, über die am 25. November abgestimmt wird, habe nicht Selbstbestimmung zur Folge, sondern Rechtsunsicherheit und Isolation, schreibt das Komitee. Widersprüche im Initiativtext führten dazu, dass für die Schweiz alle internationalen Verträge nur noch unter Vorbehalt gelten und gekündigt oder gebrochen würden. Die wirtschaftspolitische und aussenpolitische Handlungsfähigkeit des Landes würde bei einem Ja zur Initiative «Schweizer Recht statt fremde Richter (‹Selbstbestimmungsinitiative›)» eingeschränkt, macht das Komitee geltend. Der Schutz der Menschenrechte würde geschwächt. Die Initiative führe nicht zu einer Klärung zwischen Landes- und Völkerrecht, sondern vor allem zu Unsicherheit, liess sich der Aargauer FDP-Ständerat Philipp Müller im Communiqué zitieren. «Unsicherheit schadet der Schweiz.» In den Augen von Swissmem würde unter dieser Unsicherheit in erster Linie die Wirtschaft leiden. Dies macht der Dachverband der Maschinen-, Elektro- und Metallindustrie geltend. 97’000 exportorientierte Firmen im Land seien auf einen sicheren Zugang zu den Weltmärkten angewiesen, sagte Vizepräsident François Gabella. Das Komitee spricht zudem von einem Frontalangriff auf den Schutz der Menschenrechte. «Unter dem Deckmantel der Selbstbestimmung würden die Rechte von uns allen beschnitten», liess sich Andrea Huber von der Allianz der Zivilgesellschaft zitieren. Im Konfliktfall müsste die Schweiz aus der Europäischen Menschenrechtskonvention (EMRK) austreten, und das Bundesgericht dürfte diese nicht mehr anwenden, wenn es um den Schutz vor grundrechtswidrigen Bundesgesetzen gehe. Ein Ja zur Initiative wäre für das Komitee ein Damoklesschwert über den, von der Schweiz eingegangenen, internationalen Verträgen. Bestehende und selbst vom Volk mehrfach gutgeheissene Abkommen, die mit der Verfassung nicht mehr hundertprozentig übereinstimmten, müssten neu verhandelt, gebrochen oder gekündigt werden. Die Initiative wolle, dass die Schweiz zukünftig die Finger hinter dem Rücken kreuze, während sie mit der anderen Hand etwas verspreche, sagte Laura Zimmermann von der Operation Libero. Die Initiative gaukle Selbstbestimmung vor, raube der Schweiz aber ihre Verlässlichkeit. Die «Selbstbestimmungs»-Initiative verlangt, dass die Bundesverfassung künftig gegenüber dem Völkerrecht immer Vorrang hat – unter dem Vorbehalt der zwingenden Bestimmungen des Völkerrechts. SRF 4 News, 11:00 Uhr; sda/horm; bern Selbstbestimmungs-Initiative «Selbstbestimmungs»-Initiative SVP formiert sich 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   In den Augen des Gegenkomitees bedeutet die SVP-Initiative eine Gefahr für die Schweiz. 04.10.2018, 11:17 Vereint gegen die «Selbstbestimmungs»-Initiative der SVP: Vertreter von Parteien, Wirtschaft und Zivilgesellschaft treten gemeinsam gegen die Initiative an. In ihren Augen bedeutet das Begehren eine Gefahr für die Schweiz. Die SVP-Volksinitiative, über die am 25. November abgestimmt wird, habe nicht Selbstbestimmung zur Folge, sondern Rechtsunsicherheit und Isolation, schreibt das Komitee. Widersprüche im Initiativtext führten dazu, dass für die Schweiz alle internationalen Verträge nur noch unter Vorbehalt gelten und gekündigt oder gebrochen würden. Die wirtschaftspolitische und aussenpolitische Handlungsfähigkeit des Landes würde bei einem Ja zur Initiative «Schweizer Recht statt fremde Richter (‹Selbstbestimmungsinitiative›)» eingeschränkt, macht das Komitee geltend. Der Schutz der Menschenrechte würde geschwächt. Die Initiative führe nicht zu einer Klärung zwischen Landes- und Völkerrecht, sondern vor allem zu Unsicherheit, liess sich der Aargauer FDP-Ständerat Philipp Müller im Communiqué zitieren. «Unsicherheit schadet der Schweiz.» In den Augen von Swissmem würde unter dieser Unsicherheit in erster Linie die Wirtschaft leiden. Dies macht der Dachverband der Maschinen-, Elektro- und Metallindustrie geltend. 97’000 exportorientierte Firmen im Land seien auf einen sicheren Zugang zu den Weltmärkten angewiesen, sagte Vizepräsident François Gabella. Das Komitee spricht zudem von einem Frontalangriff auf den Schutz der Menschenrechte. «Unter dem Deckmantel der Selbstbestimmung würden die Rechte von uns allen beschnitten», liess sich Andrea Huber von der Allianz der Zivilgesellschaft zitieren. Im Konfliktfall müsste die Schweiz aus der Europäischen Menschenrechtskonvention (EMRK) austreten, und das Bundesgericht dürfte diese nicht mehr anwenden, wenn es um den Schutz vor grundrechtswidrigen Bundesgesetzen gehe. Ein Ja zur Initiative wäre für das Komitee ein Damoklesschwert über den, von der Schweiz eingegangenen, internationalen Verträgen. Bestehende und selbst vom Volk mehrfach gutgeheissene Abkommen, die mit der Verfassung nicht mehr hundertprozentig übereinstimmten, müssten neu verhandelt, gebrochen oder gekündigt werden. Die Initiative wolle, dass die Schweiz zukünftig die Finger hinter dem Rücken kreuze, während sie mit der anderen Hand etwas verspreche, sagte Laura Zimmermann von der Operation Libero. Die Initiative gaukle Selbstbestimmung vor, raube der Schweiz aber ihre Verlässlichkeit. Die «Selbstbestimmungs»-Initiative verlangt, dass die Bundesverfassung künftig gegenüber dem Völkerrecht immer Vorrang hat – unter dem Vorbehalt der zwingenden Bestimmungen des Völkerrechts. SRF 4 News, 11:00 Uhr; sda/horm; bern Selbstbestimmungs-Initiative «Selbstbestimmungs»-Initiative SVP formiert sich</t>
         </is>
       </c>
     </row>
@@ -2127,8 +2116,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>. Die SVP sieht unsere direkte Demokratie in Gefahr. Mit der Selbstbestimmungsinitiative will sie dem Volkswillen mehr Gehör verschaffen. Ein überparteiliches Bündnis aber meint: Eine Annahme der Initiative schwächt die Schweiz, die Wirtschaft und die Menschenrechte. 23.10.2018, 13:46 Am 25. November stimmen wir über die Volksinitiative «Schweizer Recht statt fremde Richter» ab. Die sogenannte «Selbstbestimmungsinitiative» verlangt, dass die Bundesverfassung stets Vorrang hat gegenüber dem Völkerrecht – also gegenüber geltenden internationalen Vereinbarungen wie Freihandelsverträgen oder Menschenrechtsabkommen. Bei einem Konflikt müssten solche völkerrechtlichen Abmachungen neu verhandelt oder nötigenfalls gekündigt werden. Mit der Initiative soll sichergestellt werden, dass der Wille der Stimmbevölkerung auch wirklich umgesetzt wird. Die Initiative schütze unsere direkte Demokratie, sagen die Befürworter. Gegen die Initiative stellt sich ein überparteiliches Bündnis von links bis rechts. Gemeinsam mit der Wirtschaft sowie Hilfswerken oder Menschenrechtsorganisationen kämpfen sie gegen die drohende Isolation der Schweiz. Sie sehen die Menschenrechte und den Zugang der Unternehmen zu den Weltmärkten in Gefahr. Die Initiativ-Gegner sehen die Vorlage als Angriff auf den Rechtsstaat. Schützt die Selbstbestimmungsinitiative unsere direkte Demokratie oder gefährdet sie unseren Rechtsstaat? Schadet oder nützt die Selbstbestimmungsinitiative unserem Land? In der Sendung «Forum» diskutierten folgende Gäste mit Hörerinnen und Hörern: sahm/ruek 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Die SVP sieht unsere direkte Demokratie in Gefahr. Mit der Selbstbestimmungsinitiative will sie dem Volkswillen mehr Gehör verschaffen. Ein überparteiliches Bündnis aber meint: Eine Annahme der Initiative schwächt die Schweiz, die Wirtschaft und die Menschenrechte. 23.10.2018, 13:46 Am 25. November stimmen wir über die Volksinitiative «Schweizer Recht statt fremde Richter» ab. Die sogenannte «Selbstbestimmungsinitiative» verlangt, dass die Bundesverfassung stets Vorrang hat gegenüber dem Völkerrecht – also gegenüber geltenden internationalen Vereinbarungen wie Freihandelsverträgen oder Menschenrechtsabkommen. Bei einem Konflikt müssten solche völkerrechtlichen Abmachungen neu verhandelt oder nötigenfalls gekündigt werden. Mit der Initiative soll sichergestellt werden, dass der Wille der Stimmbevölkerung auch wirklich umgesetzt wird. Die Initiative schütze unsere direkte Demokratie, sagen die Befürworter. Gegen die Initiative stellt sich ein überparteiliches Bündnis von links bis rechts. Gemeinsam mit der Wirtschaft sowie Hilfswerken oder Menschenrechtsorganisationen kämpfen sie gegen die drohende Isolation der Schweiz. Sie sehen die Menschenrechte und den Zugang der Unternehmen zu den Weltmärkten in Gefahr. Die Initiativ-Gegner sehen die Vorlage als Angriff auf den Rechtsstaat. Schützt die Selbstbestimmungsinitiative unsere direkte Demokratie oder gefährdet sie unseren Rechtsstaat? Schadet oder nützt die Selbstbestimmungsinitiative unserem Land? In der Sendung «Forum» diskutierten folgende Gäste mit Hörerinnen und Hörern: sahm/ruek</t>
         </is>
       </c>
     </row>
@@ -2361,8 +2349,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>.    Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.    Es war ein grosser Erfolg für die SVP, als ihre Masseneinwanderungsinitiative (MEI) am 9. Februar 2014 an der Urne eine Mehrheit fand. Sechseinhalb Jahre später geht es um die Begrenzungsinitiative – von der SVP gewissermassen als «Durchsetzungsinitiative» zur MEI lanciert. Und diese hat laut der neuesten SRG-Umfrage einen schweren Stand. Dies hat auch damit zu tun, dass sich heute die Ausgangslage und das Umfeld anders präsentieren als 2014. Während damals das Einwanderungsthema in den Augen vieler Menschen eines der drängendsten Probleme darstelle, spielt es heute in der öffentlichen Diskussion eine geringere Rolle. Viel grösser scheint derzeit die Angst vor einer Wirtschaftskrise zu sein – gerade im Zuge der noch nicht ausgestandenen Corona-Pandemie. In dieser Situation dürfte sich manch ein Stimmbürger oder Stimmbürgerin davor fürchten, den bilateralen Weg aufs Spiel zu setzen. Verändert hat sich aber nicht nur das Umfeld. Auch im Initiativtext kommen MEI und Begrenzungsinitiative unterschiedlich daher. Liess die Initiative von 2014 im Abstimmungskampf noch einigen Interpretationsspielraum zu, steht jetzt die Kündigung der Personenfreizügigkeit viel unmittelbarer im Raum. So liegt es auf der Hand, dass die Gegnerinnen und Gegner die Begrenzungsinitiative im laufenden Abstimmungskampf als «Kündigungs-Initiative» brandmarken. Kommt dazu: Dass die SVP in den letzten Monaten so stark mit sich selber und der mühsamen Suche nach einem neuen Parteipräsidenten beschäftigt war, hat der Ja-Kampagne gewiss nicht geholfen. Ist das ganze Thema damit vom Tisch? Nein, diese Schlussfolgerung wäre zu kurz gegriffen. Zum einen gebietet es der demokratische Respekt den Abstimmungssonntag abzuwarten. Sind die Umfrageergebnisse noch so klar: Am Schluss zählt das Votum der Stimmbürgerinnen und Stimmbürger. Zum anderen wird die Frage der Migration unabhängig vom Abstimmungsergebnis ein politisches Thema bleiben. So erfährt auch in der aktuellen SRG-Umfrage die Forderung, wonach die Schweiz die Zuwanderung wieder selbst regeln müsse, einigen Zuspruch. Und je nachdem, wie sich die Zuwanderungszahlen entwickeln, kann das Thema wieder an Brisanz gewinnen. Elmar Plozza Inlandredaktor Elmar Plozza arbeitet seit 2007 als Inlandredaktor bei Radio SRF. Seit 2013 ist er stellvertretender Leiter der Inlandredaktion. SRF 4 News, 16.09.20, 06:00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -2404,8 +2391,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>.   SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   SVP-Begrenzungsinitiative gegen bilateralen Königsweg: Der Preis der Souveränität ist hoch und sehr umstritten.  Die Vorstellung vom bilateralen Weg als Königsweg formte sich, nachdem das Schweizer Volk 1992 den Europäischen Wirtschaftsraum EWR ablehnte und auch von einem EU-Beitritt nichts wissen wollte. Nur kleinere Schritte hätten eine Chance im Volk und seien kompatibel mit der direkten Demokratie. Für CVP-Präsident Gerhard Pfister gilt das heute noch: «In der Schweiz ist der Souverän der König und hat sich für den bilateralen Weg entschieden. Auch sehe ich keine Alternative, die besser wäre.» Pfister sieht den bilateralen Weg sogar als Souveränitätsgewinn: «Wir entscheiden souverän, welche Rahmenbedingungen wir unserer Wirtschaft geben und dass wir unserer Wirtschaft Zugang zu einem grossen Binnenmarkt geben wollen.» Diese Aussage mag überraschen, ist doch in der heutigen Debatte der bilaterale Weg für viele mit Souveränitätsverlust verbunden, weil die Schweiz EU-Regeln übernehmen muss. Es gebe neben dieser formalen Souveränität des letzten Wortes auch eine andere Konzeption, sagt der frühere Handelsdiplomat Thomas Cottier und verweist auf die Väter der Souveränitätstheorie wie Bodin oder Rousseau. Ihnen gehe es letztlich bei der Souveränität um die Sicherung der Wohlfahrt und des Wohlstands der Bevölkerung: «Es kommt nicht so sehr darauf an, wer das letzte Wort hat, sondern welche Wirkungen erzielt werden.» Cottier befürwortet zwar einen Beitritt der Schweiz zur EU, ist aber wie Pfister überzeugt, dass der bilaterale Weg die Souveränität stärkt – als Mittel zum Zweck der Wohlstandssicherung. «Das Personenfreizügigkeitsabkommen verletzt die Souveränität am meisten. Denn damit gab die Schweiz 500 Millionen EU-Bürgern das Recht, in die Schweiz zu kommen, sagt SVP-Fraktionschef Thomas Aeschi. Die Schweiz müsse mit Kontingenten wieder souverän entscheiden können. Zum Umstand, dass so auch die anderen Abkommen der Bilateralen I fallen würden, sagt Aeschi: «Ich denke, die Schweiz könnte sehr gut ohne diese sechs bilateralen Abkommen leben. Keines ist wirklich relevant für die Handelsbeziehungen mit der EU.» Die SVP weiss, dass eine Initiative praktisch chancenlos ist, die zu einem Wohlstandsverlust führen könnte. Sollten Probleme auftreten, könnte ja das Freihandelsabkommen von 1972 nachverhandelt werden, erklärt die Partei. Das sei illusorisch, sagt Cottier: «Die Bilateralen I sind Bausteine eines modernen Freihandelsabkommens.» Am Tag danach in Brüssel anklopfen und etwas im Sinn des EU-kanadischen Freihandelsabkommens auszuhandeln, gehe nicht. Pfister bezeichnet die Begrenzungsinitiative als Wette mit dem Ungewissen. Die SVP nehme das Ende der Bilateralen I in Kauf, wisse aber nicht, was danach folge: «Insofern würden wir nichts gewinnen, aber sehr viel Rechtssicherheit verlieren.» Das halte er für zu riskant, und das wolle hoffentlich das Schweizer Volk nicht. «Es liegt in der Natur der Sache, dass die Zukunft ungewiss ist. Aber man muss auch den Mut haben, gegenüber der EU etwas härter aufzutreten. Wir dürfen uns von der EU nicht mehr alles gefallen lassen», entgegnet Aeschi. Ein Ja zur Begrenzungsinitiative am 27. September wäre das Ende des bilateralen Königswegs, nicht aber das Ende der bilateralen Beziehung. Die Schweiz wird also bald auch entscheiden, welche Beziehung sie zur EU will und wie sehr sie auf deren Verhandlungswilligkeit setzt. Echo der Zeit, 27.08.2020, 18:00 Uhr Abstimmungsumfrage Abstimmung am 27. September Verhältnis Schweiz-EU</t>
         </is>
       </c>
     </row>
@@ -2447,8 +2433,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>. Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Am 29. November stimmt die Schweiz über Ja oder Nein zur Konzernverantwortungsinitiative ab.  Zur Online-Diskussion Die Initiative verlangt, dass Schweizer Konzerne dafür haften, wenn Tochterfirmen im Ausland grobe Menschrechtsverletzungen begehen oder Umweltschäden verursachen. Kinderarbeit, vergiftete Flüsse, tödliche Pestizide - eine Analyse der Hilfsorganisationen «Brot für Alle» und «Fastenopfer» zählte allein in den Jahren von 2012 bis 2017 insgesamt 64 Verletzungen von Menschenrechten oder Umweltstandards durch Schweizer Konzerne. Das heisst: Fast einmal pro Monat war ein Schweizer Konzern im Ausland in die Verletzung von Menschenrechten oder Umweltstandards verwickelt. Nicht nur Menschenrechts- und Umweltschutzorganisationen, Hilfswerke, Kirche und linke Parteien, sondern auch Bürgerliche und viele Schweizer KMU sind der Meinung, dass man mit seiner Tochterfirma nicht die Gesundheit der Anwohner schädigt, kein Trinkwasser vergiftet oder Menschen vertreibt. Wenn ein Konzern das trotzdem tut, solle er künftig dafür geradestehen. Für die Befürworter ist klar: «Die Initiative fordert eine Selbstverständlichkeit.» In der Schweiz hätten viele international wichtige Firmen ihren Sitz – und somit habe unser Land auch eine besondere Verantwortung, sind die Befürworter überzeugt. Laut Initianten wären rund 1500 Schweizer Unternehmen von der Initiative betroffen. Kleinere und mittlere Unternehmen bis 250 Mitarbeitende wären von der Initiative ausgenommen, ausser sie sind in Hochrisiko-Sektoren wie beispielsweise dem Goldhandel tätig. Eine Studie, die im Auftrag des Nein-Komitees Succèsuisse erstellt wurde, geht allerdings von 80’000 Unternehmen aus. Dem Bundesrat und Parlament sowie Wirtschaftsverbänden wie dem Dachverband Economiesuisse geht die Initiative zu weit. Sie befürchten eine Schwächung der Schweizer Unternehmen, den Rückzug von KMU aus Entwicklungsländern, zu viel Bürokratie und erpresserische Klagen. Eine Annahme der Konzernverantwortungsinitiative würde laut Bundesrat Schweizer Unternehmen gegenüber ihren ausländischen Konkurrenten benachteiligen. Sie gefährde damit Arbeitsplätze in der Schweiz, aber auch Investitionen von Schweizer Firmen im Ausland. Zudem sei es ungerecht, wenn wegen einzelner schwarzer Schafe der ganzen Wirtschaft ein Korsett angelegt werde, in dem sie kaum mehr atmen könne. Bei Ablehnung der Initiative würde automatisch ein indirekter Gegenvorschlag in Kraft treten. Die Gegner der Konzerninitiative plädieren für diesen. Er wurde vergangenen Sommer vom Parlament beschlossen. Der Gegenvorschlag geht weniger weit als die Initiative und verzichtet auf neue Haftungsnormen. Er will jedoch neue Pflichten zur Sorgfaltsüberprüfung und Berichterstattung einführen. Wer gegen diese Pflichten verstösst, wird mit einer Busse von bis zu 100'000 Franken bestraft. Gäste in der Sendung waren: Radio SRF1, Sendung «Forum», 29.10.20, 20:00 Gegner und Befürworter Aus Forum vom 29.10.2020, 20:03 Uhr</t>
         </is>
       </c>
     </row>
@@ -2490,8 +2475,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>.   Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Sollen hiesige Firmen im Ausland für Umweltschäden und Menschenrechtsverletzungen haften? Die Bürgerlichen sind uneins.  Für die bürgerlichen Parteien SVP, FDP und CVP ist klar: Die Konzernverantwortungsinitiative geht zu weit, weil sie Schweizer Konzerne stärker in die Pflicht nehmen will. So sieht die Initiative eine Haftung der Konzerne für die Verletzung von Menschenrechten oder Umweltstandards auch im Ausland vor. Diese Haftungsklausel ist für den Solothurner CVP-Ständerat Pirmin Bischof der Hauptgrund für ein Nein zur Initiative. «Das wäre ein enormes Risiko für den Wirtschaftsstandort Schweiz. Und zwar für die grossen und die kleinen Unternehmungen in diesem Lande», erläutert Bischof, der eine Klagewelle gegen Schweizer Konzerne befürchtet. Doch die Ablehnung der bürgerlichen Parteien zur Initiative ist nicht geschlossen. Denn es hat sich auch ein prominent besetztes bürgerliches Ja-Komitee gebildet. Mit dabei ist Peter Bieri, Alt-Ständerat der CVP und ausgerechnet aus dem Wirtschaftskanton Zug. Er sagt, es sei wichtig, «dass wir als eine reiche Nation und als ein wohlhabender Standort, wie es Zug darstellt, unsere Verantwortung gegenüber der gesamten Welt und gegenüber der Menschheit wahrnehmen.» Dass er mit seiner Unterstützung der Initiative nicht auf Parteilinie liegt, begründet Bieri mit den christlichen Werten, die seine Partei vertreten müsse: «Man kann nicht eine C-Debatte über Werte und Inhalte führen und dann dort, wo es darauf ankommt, versagen. Das ist für mich eine Enttäuschung.» So scheren Bieri und andere bürgerliche Parlamentarier aus. Für jene bürgerlichen Kolleginnen und Kollegen, die die Konzernverantwortungsinitiative bekämpfen, ist dies schmerzhaft. «Ich habe grosses Verständnis für die Haltung der bürgerlichen Vertreterinnen und Vertreter, die die Initiative befürworten», zeigt sich CVP-Ständerat Bischof dennoch gelassen. «Ich teile diese Meinung nicht, aber ich akzeptiere diese Meinungsvielfalt. Für mich ist das kein Problem.» Was Bischof nicht sagt ist, dass sich die Bürgerlichen natürlich geschlossene Reihen im Kampf gegen die populäre Initiative gewünscht hätten. SRF 4 News, Heute Morgen, 26. Mai 2020, 06:00 Uhr Knacknuss Konzernverantwortung Menschenrechte Schweiz</t>
         </is>
       </c>
     </row>
@@ -2731,8 +2715,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>.   Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Mit der Initiative der Armeegegner soll ein Zeichen gegen Krieg gesetzt werden. Das sagen Pensionskassen zu der Vorlage.  Ethisch korrekt zu investieren sollte eine Selbstverständlichkeit sein, sagt die grüne Nationalrätin Marionna Schlatter. «Geld macht Politik. Es ist wichtig, hinzuschauen, wo unser Geld hinfliesst. Ich will keine Kriege und keine Umweltzerstörung mitfinanzieren.» Im Kern geht es darum, dass Schweizer Institutionen nicht mehr in die Rüstungsindustrie investieren dürfen. Betroffen sind mitunter der AHV-Fonds, die Nationalbank, Stiftungen und Pensionskassen. Verboten wäre der Besitz von Aktien und Fonds von Firmen, die mehr als fünf Prozent ihres Umsatzes mit Kriegsmaterial erzielen. Für die Initiativ-Gegner ist das Ziel der Vorlage zwar ein hehres, doch damit würden keine Probleme gelöst. FDP-Nationalrätin Maja Riniker sagt: «Kriege lassen sich damit nicht verhindern, obwohl sich das die Initianten wünschen – wir im übrigen auch. Es gibt einfach nur eine Verlagerung der Probleme.» Eine Frage ist, in welche Firmen nicht mehr investiert werden darf. Nokia zum Beispiel stellt sowohl militärische Funkgeräte als auch Handys her. Wie hoch der militärische Produktionsanteil ist, müsste jeweils abgeklärt werden. Zudem dürfte nicht in Zulieferfirmen investiert werden, deren Einzelteile nur für militärische Produkte genutzt werden. Auch hier müsste jeweils geklärt werden, ob diese Einzelteile auch für zivile Zwecke eingesetzt werden. Die Pensionskasse Stiftung Abendrot schliesst bereits heute Produzenten von Kriegsmaterial aus ihren Anlagen aus. Dominique Becht, Leiter Wertschriften, sagt: «Es gibt Datenbanken, Bilanzen und Erfolgsrechnungen von Firmen, mittels derer man den entsprechenden Umsatzanteil genau zuweisen kann.» Die fünf Prozent einzuhalten, sei deshalb kein Problem. Der Verband der Pensionskassen Asip ist gegen die Initiative. Michael Krähenbühl, Geschäftsführer der Vorsorgestiftung Proparis, sagt, die Überprüfung der Firmen sei aufwendig: «Ich habe mit vielen Bankern gesprochen. Sie sagten, es sei eine grosse Übung. Man könne nicht einfach einen Knopf drücken und dann spuckt es einem die Firmen raus, die man streichen muss.» Die Stiftung Abendrot sagt, ihre Versicherten seien zufrieden, die Performance der ethischen Anlagen stimmten. Die Stiftung vergleicht ihre auf dem Ethos-Fonds basierenden Anlagen mit einem herkömmlichen Index. Becht sagt: «Wir sind der Meinung, dass wir auch ohne Kriegsmaterial-Firmen eine vernünftige Performance erreichen können.» Der Ethos-Fonds würde den Kriterien der Initiative allerdings nicht genügen. Krähenbühl von Proparis sieht das kritischer: «Auch wenn es vom Index her nur eine marginale Einbusse gibt: Es gibt Prüfungskosten. Kosten die durch die Systematik der Umsetzung mitkommen und die schmälert die Rendite.» Für Maja Riniker, FDP, ist klar: «Wir greifen unsere Vorsorgewerke damit frontal an. Eine der grössten Sorgen, die wir in der Schweiz haben, ist die Altersvorsorge. Die Umwandlungssätze sinken und letztlich schadet die Vorlage wirtschaftlich direkt jeder Bürgerin, jedem Bürger in der Schweiz.» Marionna Schlatter hingegen findet, die Rendite soll stimmen – aber die Ethik auch: «Ein Viertel des weltweiten Vermögens wird hierzulande verwaltet. Wenn die Schweiz sagen würde, wir stecken unsere Milliarden nicht mehr in den Krieg, dann hätte das durchaus einen Einfluss.» Ob bald Schluss ist mit Investitionen von Pensionskassen in Kriegsmaterial, klärt sich Ende Monat. 10 vor 10, 09.11.2020, 21:50 Uhr 1. SRG-Umfrage Abstimmung am 29. November Abstimmung vom 29. November Abstimmung vom 29. November</t>
         </is>
       </c>
     </row>
@@ -2776,8 +2759,7 @@
         <is>
           <t>.   19.10.2020, 14:11 Das überparteiliche Komitee sagt der Kriegsgeschäfte-Initiative von Schweiz ohne Armee (Gsoa) und den Jungen Grünen den Kampf an. Die Vertreterinnen und Vertreter des Komitees können mit den Instrumenten der Initiative nichts anfangen, wie sie vor den Bundeshausmedien bekannt gaben. Das «rigorose» Finanzierungsverbot verteuere die Anlagemöglichkeiten der Sozialwerke und erhöhe deren Risiken. Entweder müssten sich AHV und Pensionskassen bei ihren Investitionen auf einzelne Firmen beschränken. Oder sie müssten jedes Jahr tausende von Unternehmen auf deren Umsatz mit Kriegsmaterial überprüfen. Beim ersten Fall wird laut Initiativgegner das Anlagerisiko erhöht. Der zweite Fall bringe hohe Verwaltungskosten mit sich. Zu denken gibt dem Nein-Komitee auch die aus ihrer Sicht «sehr weit gefasste Definition von Kriegsmaterialproduzenten». Der Tessiner CVP-Nationalrat Fabio Regazzi sprach von einer «völlig willkürlichen und starren Grenze». Betroffen seien nicht nur grosse Rüstungskonzerne, sondern auch Schweizer KMU, die als Zuliefererbetriebe fungierten. Ein wichtiger, grosser Auftrag von einem Rüstungsunternehmen mache solche Firmen plötzlich selber zu Kriegsmaterialproduzenten, kritisierte Regazzi. Solche Firmen dürften dann beispielsweise keine Kredite bei Schweizer Banken mehr aufnehmen. «Mit dem starren Finanzierungsverbot dreht die Gsoa vielen Schweizer Firmen den Geldhahn faktisch zu.» Weiter monieren die Gegner, die Initiative wähle einen gefährlichen Alleingang. Zentralbanken auf der ganzen Welt erfüllten ihre geld- und währungspolitischen Aufgaben unabhängig von politischen Instanzen. Die Initiative führe aber Kriterien für die Anlage der Gelder ein und gefährde die Unabhängigkeit der Nationalbank. Volk und Stände stimmen am 29. November über die Initiative «Für ein Verbot der Finanzierung von Kriegsmaterialproduzenten» ab. Diese verlangt, dass der Schweizerischen Nationalbank, Stiftungen sowie Einrichtungen der staatlichen und beruflichen Vorsorge (AHV/IV/Pensionskassen) die Finanzierung von Kriegsmaterialproduzenten verboten wird. Als solche gelten Unternehmen, die mehr als 5 Prozent ihres Umsatzes mit der Herstellung von Rüstungsmaterial erwirtschaften. Weiter soll sich der Bundesrat dafür einsetzen, dass für Banken und Versicherungen dieselben Bedingungen gelten. Gerade in der Coronakrise sei es eine dringliche Aufgabe der Nationalbank, für stabile Preise zu sorgen, sagte die Aargauer FDP-Nationalrätin Maja Riniker. Dafür sei sie auf volle Handlungsfähigkeit angewiesen. Zudem gab Riniker zu bedenken, dass die SNB bereits heute Unternehmen aus den Investitionen ausschliesse, die grundlegende Menschenrechte verletzen, systematisch gravierende Umweltschäden verursachen oder international geächtete Waffen herstellen. Die Initiative sei letztlich ein weiterer Angriff der Gsoa auf die Schweizer Armee, sagte der Berner SVP-Ständerat Werner Salzmann. Zur Verteidigung der Souveränität sei das Militär auf Schweizer Lieferanten angewiesen. Das würde schwierig, wenn AHV, Pensionskassen und Nationalbank nicht mehr in Unternehmen investieren dürften, die dazu beitrügen, den Verfassungsauftrag der Verteidigung zu erfüllen. Zwar habe die Initiative ein hehres Ziel: zu einer friedlichen Welt beitragen zu wollen, sagte der Waadtländer GLP-Nationalrat François Pointet. Die Initiative gehe aber den falschen Weg. «Die Initiative hätte keinerlei Auswirkung auf das weltweite Angebot und die Nachfrage von und nach Kriegsmaterial.» Auf internationaler Ebene bestehe kein Wille, ein Finanzierungsverbot umzusetzen. SRF 4 News, 13:00 Uhr
                 ;                                         
-                        sda/horm; Abstimmung vom 29. November Abstimmung vom 29. November Investitionen in Waffenfirmen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        sda/horm; Abstimmung vom 29. November Abstimmung vom 29. November Investitionen in Waffenfirmen</t>
         </is>
       </c>
     </row>
@@ -2819,8 +2801,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>.   Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die Initiative verlangt: kein Schweizer Geld für die Rüstungsindustrie. Für den Bundesrat gefährdet dies den Wohlstand.  Am Abstimmungssonntag vom 29. November wird es um ethische und um wirtschaftliche Überlegungen gehen. Neben der Konzernverantwortungs-Initiative wird auch über die Kriegsgeschäfte-Initiative abgestimmt. Die GSoA (Gruppe für eine Schweiz ohne Armee) und die Jungen Grünen verlangen: «Kein Schweizer Geld für die Kriege dieser Welt.» Es gehe bei dieser Initiative «in erster Linie um Ethik, und um das, was mit Vorsorgegeldern aller Schweizerinnen und Schweizer geschehe», sodass diese nicht mehr in Rüstungskonzerne investiert würden, sagt Nationalrätin Liliane Studer (EVP/AG). Sie gibt ein Beispiel mit dem US-Rüstungskonzern Lockheed Martin: «Die Vereinigten Arabischen Emirate bombardieren mit von Lockheed Martin produzierten F-16-Kampfjets Stellungen in Syrien und im Jemen-Krieg. Viele Schweizer Grossbanken, Pensionskassen und die Nationalbank schliessen diese Institution von ihrem Anlageportfolio nicht aus.» Das solle sich ändern. Die Initiative verlangt konkret, dass die Schweizerische Nationalbank, Stiftungen, aber auch Pensionskassen oder die AHV in Zukunft nicht mehr in Unternehmen investieren dürfen, die mehr als fünf Prozent ihres Jahresumsatzes mit der Herstellung von Kriegsmaterial erzielen – wie eben zum Beispiel der Rüstungskonzern Lockheed Martin. Dieses Verbot soll in der Bundesverfassung verankert werden. Im Parlament stimmten SP, die Grünen sowie die EVP dafür, unterlagen aber der geschlossen dagegen stimmenden bürgerlichen Mehrheit. Eine friedlichere Welt sei auch im Interesse der Schweiz, sagte Guy Parmelin, der die Position des Bundesrates erklärte: «Die Initiative verhindert keine Kriege. Sie bekämpft keine Ursachen. Sie gefährdet aber unsere Altersvorsorge, unseren Finanzplatz, unsere Wirtschaft und damit letztlich unseren Wohlstand.» Es gehe nicht nur um internationale Rüstungsfirmen, die Vorgaben für Investitionen würden auch die lokale Wirtschaft treffen, sagte Parmelin: «In der Schweiz wären also nicht nur bekannte Rüstungsfirmen wie die RUAG betroffen, sondern auch zahlreiche Zulieferbetriebe.» Viele KMU seien in irgendeiner Form als Zulieferer von Rüstungsunternehmen tätig, vor allem in der Maschinen-, Elektro- und Metallindustrie. Das stimme, räumt Julia Küng, Co-Präsidentin der Jungen Grünen, ein. «Aber das Geld ist ja dann nicht einfach weg. Das kann dann wieder in anderes investiert werden, zum Beispiel in nachhaltige Produkte. Da ist es vielen Firmen schon gelungen, sich umzuorientieren und ich traue das der Schweizer Rüstungsindustrie durchaus zu, dass sie das schrittweise auch tun kann.» Um wie viele KMU es geht, wurde an der Medienkonferenz des Bundesrates nicht klar, aber es seien viele. Nicht tangiert von der Kriegsgeschäfte-Initiative sind momentan die sogenannten Geschäftsbanken, also UBS, CS und so weiter. Zwar müsste sich der Bund laut Initiativtext national und international dafür einsetzen, dass auch für Banken und Versicherungen entsprechende Bedingungen gelten sollten – die Formulierung ist aber nicht bindend. Von der Kriegsgeschäfte-Initiative ebenfalls nicht betroffen sind die sogenannten Dual-Use-Güter – also Produkte, die sowohl für Kriegsmaterial aber auch zivil verwendet werden können. Darüber steht nichts im Initiativtext. Rendez-vous, 09.10.2020, 12:30 Uhr Abstimmung vom 29. November</t>
         </is>
       </c>
     </row>
@@ -2972,8 +2953,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>.   Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Die Romandie stimmt oft linker als die Deutschschweiz. Bei der Initiative zum Verhüllungsverbot könnte es anders sein.  Initiativen aus dem rechts-bürgerlichen Lager hatten in der Vergangenheit in der Westschweiz wenig Chancen. Die Romands stimmen tendenziell linker ab als die Deutschschweizerinnen und Deutschschweizer. Bei der Initiative für das Verhüllungsverbot zeigt sich nach ersten Umfragen jedoch ein anderes Bild. Die Zustimmung zur Initiative für ein Verhüllungsverbot dürfte in der Westschweiz sogar höher ausfallen als in der Deutschschweiz. Das überrascht, aber nur auf den ersten Blick. Offiziell sagen die Linksparteien zwar auch in der Westschweiz «Nein» zum Verhüllungsverbot. Doch die Meinungen sind gespalten. So sehr, dass einzelne Linke mit Vertreterinnen und Vertretern aus Mitteparteien ein überkantonales Komitee gegründet haben, das sich für die Initiative einsetzt. Sie betonen, ihre Befürwortung richte sich nicht gegen Muslime – Gesichtsverhüllungen wie Burka oder Nikab seien ihnen aus anderen Gründen ein Dorn im Auge. Nämlich, weil sie diskriminierend und menschenrechtsverletzend seien und ein Zeichen der Unterdrückung der Frauen. Das Gegenargument, Frauen sollen selbst und ohne Vorschriften über ihre Kleidung bestimmen können, lassen sie nicht gelten. Umfrage zu den Abstimmungen Weiter dürfte einmal mehr auch der Einfluss von Frankreich eine Rolle spielen. In Frankreich sind Gesichtsverhüllungen bereits seit rund zehn Jahren verboten. Eine Klage dagegen hat der Europäische Gerichtshof für Menschenrechte 2014 abgelehnt. Und in Genf hat das Stimmvolk vor zwei Jahren «Ja» zum sogenannten Laizitätsgesetz gesagt, das sämtliche religiösen Symbole im öffentlichen Raum verbietet. Das sind alles Gründe, weshalb ein Verhüllungsverbot auch in der Westschweiz auf offene Ohren stösst und nicht chancenlos ist, wie dies sonst bei Initiativen, die von rechts lanciert wurden, meist der Fall ist. HeuteMorgen, 11.02.2021, 6 Uhr Initiative Verhüllungsverbot Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -3015,8 +2995,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>.    Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.    Am 29. November 2009 hatten die Stimmberechtigten die Minarett-Initiative des Egerkinger Komitees mit über 57 Prozent Ja-Stimmen angenommen. Noch drei Wochen zuvor hatten in einer Umfrage erst 37 Prozent angegeben, sie würden ein Ja einlegen. Am 7. März dieses Jahres kommt mit der Initiative für ein Verhüllungsverbot (Burka-Initiative) erneut eine Vorlage des Egerkinger Komitees zur Abstimmung. Sie richtet sich wieder gegen den politischen Islam und spricht wiederum eine Problematik an, die zwar politisch und emotional aufgeladen ist, in der Lebensrealität der meisten Menschen in der Schweiz aber keine grosse Rolle spielt. In der heute publizierten SRG-Umfrage spricht sich mit 56 Prozent der Befragten eine klare Mehrheit für diese Initiative aus. Nimmt man den Massstab der Minarett-Initiative, dann könnten die Initianten bereits jetzt die Korken knallen lassen; das Volks-Ja scheint sicher. Es gibt allerdings gute Gründe, weshalb es am 7. März trotzdem ein Nein an der Urne geben könnte. Die aktuelle Unterstützung für die Initiative für ein Verhüllungsverbot ist eindrücklich, und das Schweizer Stimmvolk ist immer wieder für eine Überraschung gut. Trotzdem deutet, wie oben dargelegt, einiges darauf hin, dass die Initiative den Weg vieler Initiativen in den letzten Jahren geht: Nach einer ersten Sympathiewelle überwiegt am Abstimmungstag die Ablehnung. Urs Leuthard Leiter Bundeshausredaktion Seit Sommer 2020 ist Urs Leuthard Leiter der Bundeshausredaktion von Fernsehen SRF. Bereits seit 2002 moderiert er das «Abstimmungsstudio» und analysiert Wahlen und Abstimmungen. Bis 2008 war er Moderator und Redaktionsleiter der «Arena», danach wechselte er zur «Rundschau», bevor er 2012 die Redaktionsleitung der «Tagesschau» übernahm. Hier finden Sie weitere Artikel von Urs Leuthard und Informationen zu seiner Person.  News und Hintergrund zu den Abstimmungen und Wahlen vom 7. März 2021 SRF 4 News, 29.02.2021, 06.00 Uhr Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen Umfrage zu den Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -3302,8 +3281,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>. Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Mit ihrer Initiative fordern die Jungsozialisten (Juso) höhere Steuern auf hohe Kapitalgewinne – und wollen damit die Reichsten treffen. Führt dies zu mehr Steuergerechtigkeit oder schadet es dem Standort Schweiz? Diskutieren Sie mit!  In der Schweiz ist das Geld sehr ungleich verteilt: So besitzt das reichste Prozent der Bevölkerung mehr als 40 Prozent aller privaten Vermögen. Und in den vergangenen Jahren sind diese Vermögen insgesamt stetig weitergewachsen. Die Einkommen der meisten Angestellten hingegen nehmen kaum zu. Hier setzt die 99-Prozent-Initiative der Juso an: Durch mehr Umverteilung will sie die Ungleichheit bekämpfen. Und zwar sollen Kapitaleinkünfte ab einer gewissen Schwelle stärker besteuert werden, also Gewinne aus Dividenden, Börsengeschäften oder der Vermietung von Wohnungen. Die Initiative lässt offen, wo diese Schwelle liegen soll. Bei einem Ja am 26. September müsste sie das Parlament danach bestimmen. Die Juso schlägt eine Grenze von 100'000 Franken vor. Konkret würde dies bedeuten, dass die Steuern auf Dividendengewinne von mehr als 100'000 Franken anderthalbmal so hoch wären. Die Mehreinnahmen – die Initianten schätzen sie auf 10 Milliarden Franken im Jahr – sollen umverteilt werden an Personen mit tiefen und mittleren Einkommen, beispielsweise für Verbilligungen der Krankenkassenprämien. Doch die Juso-Initiative ist umstritten: Nur die SP, die Grünen und die EVP unterstützen sie. Die bürgerlichen Parteien und der Bundesrat bekämpfen die Vorlage dagegen vehement. Sie argumentieren, dass Kapitaleinkommen bereits heute genügend besteuert würden und dass reiche Personen als Reaktion das Land verlassen könnten. Die Initiative schade also dem Standort Schweiz. Über die Vor- und Nachteile der 99-Prozent-Initiative diskutieren wir am Donnerstagabend, 26. August, in der Sendung «Forum» auf Radio SRF 1. Zu Gast sind:  Radio SRF 1, Sendung «Forum», 26.8.2021, 20 Uhr Aus Forum vom 26.08.2021, 20:03 Uhr</t>
         </is>
       </c>
     </row>
@@ -3345,8 +3323,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>.   Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Der Umverteilungsplan der Jungsozialisten zielt auf die Reichsten. Für die Gegner ist er unklar, unnötig und schädlich.  Höhere Steuern für das reichste Prozent der Bevölkerung. Oder: Wer von seinem Vermögen lebt, soll mehr Steuern zahlen als jene, die jeden Tag aufstehen und arbeiten gehen. Das ist die Forderung der 99-Prozent-Initiative der Jungsozialistinnen und Jungsozialisten. Der Initiativtext lässt allerdings vieles offen: Etwa welche Einkommen genau höher besteuert werden sollen. Oder wie genau und an wen der Staat die Mehreinnahmen umverteilen soll. Sodass Finanzminister Ueli Maurer zum Schluss gelangt: «Es hat so viele Unklarheiten, die das übliche Mass einer Volksinitiative übersteigen. Das ist so fast nicht zumutbar – ein Grund, um nein zu sagen.» Aus der Sicht des Bundesrats braucht es zudem gar nicht mehr Umverteilung: «Wir haben diese Umverteilung eigentlich schon jetzt – recht krass meiner Meinung nach in Bezug auf die Steuern.» Maurer erwähnt die Progression bei der Bundessteuer: Auf höhere Einkommen wird ein höherer Steuersatz fällig. Und zum dritten schwäche die Initiative den Wirtschaftsstandort. Mit diesem Argument steigt heute auch ein Wirtschaftskomitee, angeführt vom Gewerbeverband, in den Abstimmungskampf. Die Initiative erschwere zum Beispiel Firmenübergaben an die nächste Generation, so Gewerbeverbandsvizepräsidentin und FDP-Nationalrätin Daniela Schneeberger. Wer sein KMU verkaufe, brauche den Erlös oft, um seinen Lebensunterhalt im Ruhestand zu finanzieren – da liege keine Steuererhöhung drin: «Die Nachfolgeplanungen sind heute schon ein grosses Problem. Man findet nicht so schnell Nachfolger. Mit einer solchen Zusatzbelastung würde es sehr schwierig.» Der Blick in andere Länder zeige, dass das sehr wohl gehe, erwidert Juso-Präsidentin Ronja Jansen: «Im Ausland, wo die meisten Länder schon eine Kapitalgewinnsteuer kennen, sind die Schreckensszenarien nie Realität geworden.» Die 99-Prozent-Initative würde nach ihren Worten im Gegenteil gerade kleine Unternehmen unterstützen: «Denn sie würde dafür sorgen, dass die breite Bevölkerung wieder mehr Geld für Konsum habe, womit die Kaufkraft gestärkt würde. Nichts anfangen kann die Juso-Präsidentin auch mit dem Argument des Finanzministers, wonach in der Schweiz bereits heute eine stattliche Summe umverteilt werde: «Dann weiss ich nicht, wo sich Herr Maurer die letzten Jahre versteckt hat. Die Zahl der armutsbetroffenen Menschen wächst, die Mühe haben ihre Mieten und Krankenkassenprämien zu bezahlen.» Im Übrigen sei klar, was die Initiantinnen wollten, betont Jansen. Natürlich kläre ihr Text nicht jedes Detail, schliesslich gehe es um eine Änderung in der Bundesverfassung. Mit der konkreten Umsetzung würde sich wie immer das Parlament beschäftigen – im Fall einer Annahme der Initiative am 26. September. Echo der Zeit, 10.08.2021, 18:00 Uhr Linkes Nein</t>
         </is>
       </c>
     </row>
@@ -3750,8 +3727,7 @@
 Zudem sollen Pflegefachpersonen gewisse Pflegeleistungen selbständig direkt mit der obligatorischen Krankenpflegeversicherung oder anderen Sozialversicherungen abrechnen können. Heute können sie grundsätzlich nur die Leistungen abrechnen, die von einer Ärztin oder einem Arzt angeordnet worden sind.
 Dem Bundesrat und einer Mehrheit des Parlaments geht dieser Vorschlag zu weit. Das Parlament hat deshalb einen indirekten Gegenvorschlag zur Volksinitiative verabschiedet. Dieser Vorschlag tritt in Kraft, wenn die Initiative abgelehnt wird und der Gegenvorschlag nicht erfolgreich mit einem Referendum bekämpft wird.
 Der Gegenvorschlag sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Mit dem Geld sollen sowohl Studierende als auch Spitäler, Pflegeheime und Spitexorganisationen unterstützt werden, die Pflegepersonal ausbilden.
-Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Zudem sollen Fachhochschulen und höhere Fachschulen Geld erhalten, wenn sie die Zahl der Ausbildungsplätze erhöhen.   Für Bundesrat und Parlament geht die Pflegeinitiative zu weit. Sie unterstützen den indirekten Gegenvorschlag. Dieser sieht unter anderem vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von neuem Pflegepersonal investiert. Der indirekte Gegenvorschlag sei im Gegensatz zur Initiative konkreter und auch schneller umsetzbar, so die Ansicht der Initiativ-Gegner. «Einfach die Wünsche an eine bessere Pflege in die Verfassung zu schreiben, reicht nicht», sagt beispielsweise Jörg Kündig, FDP-Kantonsrat in Zürich und Gesundheitspolitiker. Ihm fehlen die konkreten Schritte, wie das Problem gelöst wird, deshalb engagiert er sich für den Gegenvorschlag. Für die Initianten der Volksinitiative geht der Gegenvorschlag zu wenig weit. Er beinhalte wesentliche Inhalte nicht, wie zum Beispiel die Verbesserung der Arbeitsbedingungen und eine verbindliche Vorgabe, wie viele Patientinnen eine Pflegeperson maximal betreut. Bessere Arbeitsbedingungen in der Pflege: Braucht es die Initiative oder reicht der Gegenvorschlag? Am Donnerstag 28.10., ab 20 Uhr diskutierten folgende Gäste in der Sendung «Forum»: .  Radio SRF 1, Sendung «Forum», 28.10.2021, 20 Uhr Auf einen Blick Nein-Komitee Abstimmung am 28. November</t>
         </is>
       </c>
     </row>
@@ -3795,8 +3771,7 @@
         <is>
           <t>.   30.10.2021, 13:43 Die Organisatorinnen des Bündnis' Gesundheitspersonal schätzten die Zahl auf 5000 Teilnehmende. Im Rahmen der Kundgebung berichteten Gesundheitsfachfrauen aus allen Landesteilen, wie sie im Alltag den «Notstand» in der Pflege erlebten. Derzeit seien 11'000 Stellen in der Pflege unbesetzt, was zu enormem Druck und einem für die Patienten gefährlichem Qualitätsverlust führe. In den Reden wurde für eine Annahme der Pflege-Initiative geworben. Eine blosse Ausbildungsoffensive, wie sie der indirekte Gegenvorschlag vorsehe, genüge nicht, hiess es. «Was nützt dies, wenn viele den Beruf nachher verlassen?», fragte sich eine Rednerin. Nötig sei eine grundsätzliche Reform des Gesundheitswesens. Auf Transparenten und Schildern war unter anderem zu lesen: «Wir retten Euch – Rettet uns», «Stoppt Burnout und Erschöpfung» oder «Klatschen reicht nicht.» Zur Kundgebung aufgerufen hatte das Bündnis Gesundheitspersonal, dem über 10 Berufsverbände und Gewerkschaften angehören, darunter der Berufsverbund der Pflegefachfrauen und Pflegefachmänner (SBK). Die vom SBK lancierte Pflege-Initiative verlangt, dass Bund und Kantone für eine ausreichende, allen zugängliche Pflege von hoher Qualität sorgen. Der Bund soll die Arbeitsbedingungen in den Spitälern, Heimen und Spitex-Organisationen verbindlich regeln. Dazu zählt die Höhe der Löhne. Dem Bundesrat und einer Mehrheit des Parlaments geht die Initiative zu weit. Ein indirekter Gegenvorschlag sieht vor, dass Bund und Kantone für die nächsten acht Jahre rund eine Milliarde Franken in die Ausbildung von Pflegepersonal investieren. Der Gegenvorschlag käme bei einer Ablehnung der Initiative zum Zug. Auch einige tausend Beschäftigte aus der Bau- und anderen Branchen haben in Bern, Olten, Zürich, Genf und Bellinzona für mehr Lohn, Respekt und Solidarität demonstriert. Sie forderten die Anerkennung ihrer Leistungen in der Covid-19-Pandemie. Aufgerufen zu den Demonstrationen hatte die Gewerkschaft Unia. Wie sie mitteilte, schlossen sich den Demonstrierenden aus der Baubranche auch Arbeitnehmerinnen und Arbeitnehmer aus Pflege, Verkauf und Logistik an. Sie alle hätten während der Pandemie unermüdlich an vorderster Front gearbeitet. Obwohl die Bevölkerung für sie geklatscht hätte, hätte sich an den Arbeitsbedingungen gemäss Unia nichts geändert.  SRF 4 News, 30.10.2021, 15 Uhr
                 ;                                         
-                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        sda/hesa; spic Auf einen Blick Nein-Komitee Umfrage zu den Abstimmungen Zustimmung zum Gegenvorschlag</t>
         </is>
       </c>
     </row>
@@ -3976,8 +3951,7 @@
       <c r="J77" t="inlineStr">
         <is>
           <t>. Heute werden die Richterinnen und Richter für das Bundesgericht vom Parlament gewählt. Die Justizinitiative will das ändern – und die Richter im Losverfahren bestimmen. Damit soll das Bundesgericht unabhängiger von den Parteien werden.   «Wollen Sie unabhängige Richterinnen und Richter?» Diese Frage stellt die Ja-Kampagne der Justizinitiative. Hinter der Frage steht die Überzeugung des Initiativkomitees, dass die 38 Bundesrichterinnen und -richter heute nicht unabhängig, sondern abhängig von ihren Parteien sind. Tatsächlich wählt das Parlament die Richterinnen und Richter für das höchste Gericht des Landes in Lausanne. Und seit 1953 gehören alle Gewählten einer Partei an. Seit fast 70 Jahren haben Parteilose also keine Chance mehr, Bundesrichterin oder Bundesrichter zu werden. Diese Verflechtung zwischen Politik und Justiz wird regelmässig kritisiert – etwa auch vom Europarat. Hier setzt die Justizinitiative an, die der Unternehmer Adrian Gasser 2018 lancierte und über die wir am 28. November abstimmen: Die Initiative fordert, dass die Bundesrichterinnen und -richter in Zukunft im Losverfahren gewählt werden. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch. Eine unabhängige Expertenkommission soll jene Personen auswählen, die für die Wahl geeignet sind, bevor das Los entscheidet. Damit sollen auch Parteilose wieder eine Chance haben – und die Verflechtung mit den Parteien durchbrochen werden. Der Bundesrat und alle Parteien bekämpfen die Initiative. Sie argumentieren, es gebe keine Hinweise, dass Bundesrichterinnen und -richter nicht unabhängig urteilten. Ausserdem sei das heutige System demokratisch und transparent. Hingegen schwäche das Losverfahren die demokratische Legitimation des Bundesgerichts. Und der Zufall mache nicht die geeignetsten Personen zu Bundesrichterinnen und -richtern. Über die Justizinitiative diskutieren wir am Donnerstag, 4. November, in der Sendung «Forum». Gäste in der Sendung sind:  Radio SRF 1, Sendung «Forum», 4.11.2021, 20 Uhr Auf einen Blick</t>
         </is>
       </c>
     </row>
@@ -4019,8 +3993,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>.   Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Bundesrichterinnen und Bundesrichter sind nicht unabhängig. Dieser Vorwurf liegt der Justiz-Initiative zugrunde. Drei ehemalige Mitglieder des Bundesgerichts argumentieren.  Die Mitglieder des Bundesgerichts stünden zu sehr unter politischem Druck. Das ist ein zentrales Argument der Justiz-Initiative. Nahrung bekam diese Theorie im Herbst vor einem Jahr. Die Initiative war längst eingereicht. Die SVP schlug einen ihrer Richter nicht mehr zur Wiederwahl vor, weil er mehrmals nicht parteitreu geurteilt hatte. Zwar wurde der Mann wiedergewählt, aber solche Manöver hätten dennoch eine Wirkung, ist Niccolò Raselli, Alt-Bundesrichter (SP), überzeugt. «Das Ziel solcher Drohgebärden ist, dass im Prozess der Entscheidungsfindung eben nicht nur Recht und Gerechtigkeit zum Tragen kommen, sondern der Druck der Partei gegenwärtig ist.» Strafaktionen gab es schon früher, etwa in den 80er-Jahren, als konservative Politiker jenen Richtern bei der Wiederwahl die Stimme versagten, die gegen Kruzifixe in Schulzimmern geurteilt hatten. Politisch unter Druck fühlte man sich im Bundesgericht auch Anfang der 2000er-Jahre, als Christoph Blocher Justizminister war. Blocher kritisierte die Arbeit des Bundesgerichts und wollte dort 20 Prozent einsparen. Alt-Bundesrichter Giusep Nay (CVP) erinnert sich. «In der Zeit, in der Christoph Blocher der Justizminister war, habe ich sehr gegen seine Angriffslüste angekämpft. Und ich glaube, auch mit Erfolg.» Sowohl Nay als auch Raselli beteuern, persönlich nie einen direkten Einfluss ihrer Parteien gespürt zu haben. Gleiches sagt die ehemalige Bundesrichterin Ursula Nordmann (SP). «Überhaupt nicht. Wenn man etwas besprechen wollte mit einem Parteikollegen, dann rief man ihn an oder traf ihn. Aber das war kein Problem.» Druckversuche und Strafaktionen scheinen also nicht die Regel zu sein. Aber sie kommen vor. Für Alt-Bundesgerichtspräsident Nay braucht es deswegen nicht unbedingt Regeländerungen, sondern politischen Gegendruck. «Politiker müssten den Mut haben, das klipp und klar zu verurteilen und als verfassungswidrig zu bezeichnen. Dieser Mut fehlt leider.» Alt-Bundesrichterin Nordmann befürwortet dezidiert eine Massnahme, die politische Druckversuche unmöglich machen soll. Eine, die auch Teil der Justiz-Initiative ist. «Meines Erachtens ist die Wiederwahl das, was man ändern muss. Und zwar nicht, weil ich mich unter Druck fühlte. Aber es löst alle Probleme.» Statt Wiederwahl nach sechs Amtsjahren nur eine einzige längere Amtszeit von 15, vielleicht 20 Jahren. So könnten die Politikerinnen den Richtern nicht mehr via Stimmzettel Noten verteilen. Auch Alt-Bundesrichter Raselli fände das sinnvoll. Raselli hat überdies auch Sympathien für eine weitere Forderung der Justiz-Initiative: die Schaffung eines Fachgremiums, das die Kandidierenden prüft und zur Wahl vorschlägt. Die Hoffnung: So hätten neu auch Parteilose eine Wahlchance, weil «von einem fundierten Antrag der Evaluierungskommission das Parlament sich nicht ohne Not distanzieren könnte.» Nordmann setzt ein grosses Fragezeichen hinter parteilose Richterinnen und Richter. «Ich finde es nicht wünschenswert, dass Leute, die weder in einer Partei sein wollen noch können, gewählt werden, denn sie sind intransparent. Man weiss nicht, was man wählt.» Mit oder ohne Fachgremium: Der von den Initianten geforderten Wahl im Losverfahren können alle drei Alt-Bundesrichter gar nichts abgewinnen. Sie argumentieren, es würde nicht sichergestellt, dass das Bundesgericht dann ausgewogen zusammengesetzt wäre. Auch im Parlament gab es darum nur eine einzige Ja-Stimme zur Initiative und auch ein Gegenvorschlag fand keine Mehrheit. Eine Reform-Idee bleibt auch nach einem Nein zur Justiz-Initiative aktuell: das Fachgremium, das die Richterkandidatinnen und -kandidaten dem Parlament vorschlagen soll. Dieser Vorschlag hat im Parlament eine erste Hürde genommen.  Rendez-vous, 01.11.2021, 12:30 Uhr Bundesrichter-Wahl per Los? Auf einen Blick Umfrage zu den Abstimmungen</t>
         </is>
       </c>
     </row>
@@ -4076,8 +4049,7 @@
 Box zuklappen
 Legende:
                     Keystone
-Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten. Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Rendez-vous, 10.03.2021, 12:30 Uhr Volksinitiative im Nationalrat Umstrittene Tierversuche Freispruch an Basler Gericht 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Detlef Günther, Vizepräsident für Forschung an der ETH Zürich, sagt: Die Initiative für ein Verbot von Tierversuchen würde die Weiterentwicklung der Medizin blockieren. Besonders deutlich sei dies bei Covid-19.«Auf den Punkt gebracht: Ohne Tierversuche würde es keine Impfung geben.» Davon, Impfstoffe oder Medikamente an laborgezüchteten Zellen oder Gewebekulturen zu testen, wie es die Initianten vorschlagen, sei man weit entfernt. «Gerade bei Impfstoffen muss der Organismus in seiner Ganzheit untersucht werden, um die gewünschten und unerwünschten Wirkungen zu finden, bevor er an die Bevölkerung abgegeben werden kann.» Das könne man nicht einfach mit Organoiden oder Zellanhäufungen austesten. Mirjam Christ-Crain ist Co-Leiterin der klinischen Forschung an der Universität Basel. Sie hält die Forderungen der Initiative, auch Versuche am Menschen zu verbieten, für problematisch: «Das würde bedeuten, dass keine neuen Behandlungsmethoden entstehen würden und die Forschung stagnieren würde.» Denn: Erkenntnisse aus Zellexperimenten und Tierversuchen liessen sich nicht 1:1 auf den Menschen übertragen. Man müsse am Probenden prüfen, ob und wie ein Medikament, eine Therapie wirke. Für klinische Studien gelten schliesslich strenge Richtlinien und sie seien freiwillig, so Christ-Crain. Rendez-vous, 10.03.2021, 12:30 Uhr Volksinitiative im Nationalrat Umstrittene Tierversuche Freispruch an Basler Gericht</t>
         </is>
       </c>
     </row>
@@ -4121,8 +4093,7 @@
         <is>
           <t>.   10.03.2021, 11:16 Die Initiative verlangt ein bedingungsloses Verbot von Tier- ebenso wie Menschenversuchen. Auch wenn verschiedene Fraktionen im Nationalrat das Anliegen für berechtigt hielten, war ihnen ein absolutes Verbot zu radikal. «Mit einem Ja zur Initiative würde die Schweiz gänzlich auf einen Impfstoff gegen das Coronavirus verzichten», sagte zum Beispiel Christian Wasserfallen (FDP/BE). Dasselbe würde für moderne Krebstherapien gelten. Für Therapien und Medikamente müsste jemand aus der Schweiz dann ins Ausland reisen. Thomas de Courten (SVP/BL) vertrat die Meinung, dass Institutionen, die mit Tieren arbeiten, dies bereits verantwortungsbewusst tun und Expertinnen und Experten beiziehen. Die Initianten würden behaupten, dass «Tierversuche den Fortschritt behindern würden». Viele Fortschritte seien aber wegen der Ähnlichkeit von Mensch und Tier möglich, so de Courten. Namens der Mitte-Fraktion fügte Lilian Studer (EVP/AG) hinzu, dass Güterabwägungen weiterhin möglich sein müssten zwischen der Belastung der Tiere und dem potenziellen Nutzen eines Versuches für den Menschen. «Forschung an Tier und Mensch bleibt nie ganz wegzudenken», sagte sie. SP, Grüne und GLP lehnen die Volksinitiative zwar ebenfalls ab, wollten ihr aber einen Gegenvorschlag entgegenstellen, entweder direkt – in der Verfassung – oder indirekt auf Gesetzesebene. Dieser hätte den Verzicht auf Versuche, die die Tiere stark belasten, beinhaltet. Ein Ausstieg aus belastenden Tierversuchen sei für die SP zentral, sagte Matthias Aebischer (BE). Denn bei solchen Experimenten würden die Tiere starke Schmerzen oder Angst erleiden. Auch Meret Schneider (Grüne/ZH) warb für den direkten Gegenvorschlag: Mit ein Grund sei, dass Ergebnisse aus Tierversuchen nicht ohne weiteres auf den Menschen übertragbar seien. Öffentliche Mittel sollten deshalb primär an Forschungsprojekte gehen, die ohne Versuchstiere auskommen. Auf internationaler Ebene müsste sich der Bund für die Förderung von Forschung ohne Tierversuche stark machen. Ein zweiter, ebenfalls von SP, Grünen und GLP unterstützter Antrag hatte einen verbindlichen Ausstiegsplan aus den Tierversuchen zum Ziel. Die Vorlage sollte deshalb an die Kommission für Wissenschaft, Bildung und Kultur (WBK-N) zurückgewiesen werden mit dem Auftrag, eine Kommissionsinitiative für den indirekten Gegenvorschlag auszuarbeiten. Die GLP ihrerseits will die 3R-Forschung vorantreiben, die einen Ersatz von Tierversuchen, eine Verminderung von deren Zahl und für die Tiere weniger Belastungen zum Ziel hat. Katja Christ (GLP/BS) forderte deshalb gesetzliche Grundlagen, damit dieser Forschungszweig mehr Ressourcen erhält. Der im Zusammenhang mit Tierversuchen oft genannte Begriff «3R» steht für Replace (Vermeiden), Reduce (Verringern) und Refine (Verbessern). Das 3R-Prinzip hat also das Ziel, Tierversuche zu ersetzen, insgesamt weniger Tiere einzusetzen und die Versuche zu verbessern. Hinter der Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» stehen St. Galler Bürgerinnen und Bürger. Unterstützt wird die Initiative von rund 80 Organisationen und Unternehmen. Darunter sind Vertreterinnen und Vertreter von SP und Grünen sowie Tierschutzgruppen und Tierparteien. Darum geht es: Die Volksinitiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt» fordert ein bedingungsloses Verbot von Tierversuchen und Forschung am Menschen in der Schweiz. Weiter soll auch der Handel mit Produkten, die unter Anwendung von Tierversuchen entwickelt wurden, verboten werden. Die Initianten möchten erreichen, dass die Forschung künftig mehr auf Modelle setzt statt auf Versuche. Was bisher geschah: Der Bundesrat lehnt die Initiative ab, da die existierenden Verfassungs- und Gesetzesbestimmungen ausreichend seien, um Mensch und Tier zu schützen. Ein solches Verbot hätte zudem massive negative Konsequenzen für die Gesundheit der Bevölkerung, die Forschung und die Wirtschaft unseres Landes. Ausserdem sei die Initiative unvereinbar mit den internationalen Verpflichtungen der Schweiz. So geht es weiter: Das Parlament berät in der Frühlingssession, ob es der Initiative einen Gegenentwurf oder einen indirekten Gegenvorschlag zur Seite stellen soll. Letzterer könnte beinhalten, dass nur Tierversuche ohne belegte Wirksamkeit verboten werden oder dass ein Ausstiegsplan aus belastenden Tierversuchen festgelegt wird. Der Nationalrat hat diese Möglichkeiten abgelehnt. Nun ist der Ständerat am Zug. Der Termin für die Volksabstimmung steht noch nicht fest. Info 3, 10.03.2021, 12:00 Uhr
                 ;                                         
-                        sda/eglc/harm Statistik des Bundes Tierversuche in der Schweiz Tierversuche in der Schweiz 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        sda/eglc/harm Statistik des Bundes Tierversuche in der Schweiz Tierversuche in der Schweiz</t>
         </is>
       </c>
     </row>
@@ -4166,8 +4137,7 @@
         <is>
           <t>. Im Februar wird über die Initiative über das Verbot von Tierversuchen abgestimmt. Sind Tierversuche unverzichtbar oder unnütze Quälerei?  Liebe Userinnen und User, die geplante «Forum»-Sendung vom Donnerstag, 20. Januar zur Tierversuchsverbotsinitiative findet aufgrund eines Ausfalls im Team von Radio SRF 1 nicht statt. Wir schliessen deshalb die Kommentare zu diesem Artikel. Danke fürs Verständnis und merci fürs Mitkommentieren!   Am 13. Februar 2022 entscheidet die Schweizer Stimmbevölkerung über die Initiative «Ja zum Tier- und Menschenversuchsverbot – Ja zu Forschungswegen mit Impulsen für Sicherheit und Fortschritt», kurz Tierversuchsverbots-Initiative. Wer mit Tieren forscht, wird dem Tier in vielen Fällen Schaden zufügen: Es wird verletzt, krank gemacht und psychischem Stress ausgesetzt. Deshalb fordert die Initiative ein bedingungsloses Verbot von Tierversuchen. Zudem soll der Import von Produkten und Medikamenten, die mit Tierversuchen entwickelt wurden, verboten werden. Auch klinische Studien noch nicht zugelassener Medikamente an gesunden Menschen, von den Initiantinnen «Menschenversuche» genannt, würden bei Annahme der Initiative verboten. «Die Menschenversuche liefern nur vage Durchschnittswerte», sagt Regina Möckli vom Unterstützungskomitee. Die Initianten argumentieren zudem, Tierversuche seien ineffizient: Die Körper von Tieren unterschieden sich zu stark von jenen der Menschen. Von 100 Wirkstoffen versagten 95 im Menschenversuch, trotz scheinbar erfolgversprechender Ergebnisse im Tierversuch. Lanciert wurde die Initiative von der Interessengemeinschaft Tierversuchsverbot Schweiz – einer kleinen Gruppe von Tierschützerinnen und Tierschützern ohne politische Bindung.
 Bundesrat und Parlament lehnen die Initiative geschlossen ab. Auch viele Verbände und Interessegruppen sind dagegen: zum Beispiel Economiesuisse, die Ärztevereinigung FMH, der Schweizer Tierschutz und der Schweizerische Nationalfonds. Für die Initiative findet sich weder bei Parteien und noch bei Verbänden Unterstützung – zumindest offiziell.  Fakt ist: Rund 600'000 Tiere pro Jahr werden in der Schweiz in Tierversuchen von Universitäten, Spitälern oder Pharma eingesetzt – Fische, Mäuse, Vögel, Katzen, Hunde oder Affen. Knapp ein Drittel davon müssen belastende Experimente über sich ergehen lassen. Die schwersten Versuche des «Schweregrades 3» sind mit starken Schmerzen oder Angst, schweren Beeinträchtigungen und langfristigen Leiden verbunden. Während in den letzten Jahren die Anzahl der Tierversuche stark abgenommen hat, nehmen die besonders belastenden Versuche nach wie vor zu. Forscherinnen und Forscher bezeichnen die Initiative aber als radikal: Ganz ohne Einsatz von Tieren sei im Moment wissenschaftlicher Fortschritt nicht möglich. Mit dem Importverbot für Medikamente, die mit Tierversuchen hergestellt wurden, würde sich die Schweiz ins Mittelalter zurückkatapultieren.  Bei einer Annahme gäbe es in der Schweiz keine neuen Medikamente, Therapien oder Impfstoffe mehr, weder für Menschen noch für Tiere. «Wir hätten keine Impfungen und kein einziges Antibiotikum mehr. Und auch keine Medikamente gegen schwere Krankheiten wie Krebs», befürchtet beispielsweise der Tierforscher Robert Rieben von der Uni Bern. Die Schweiz habe im internationalen Vergleich bereits eines der strengsten Tierschutzgesetze, argumentieren die Initiativ-Gegner. Tierversuche dürfen nur dann durchgeführt werden, wenn keine Alternativen zur Verfügung stehen. Zudem muss jeder Versuch vom kantonalen Veterinäramt und der jeweiligen Tierversuchskommission bewilligt werden. Würde die Initiative angenommen, wäre die Schweiz das erste Land, das komplett auf Tierversuche verzichtet. Im «Forum» diskutieren Fachleute mit Hörerinnen und Hörern brennende aktuelle Themen aus Gesellschaft, Politik, Wirtschaft, Kultur oder Sport. Das «Forum» ist live.
-Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.  
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Der Hörer- und Usereinbezug ist das Markenzeichen der Sendung «Forum». Die Hörerinnen und Hörer sind entweder live im Studio oder aber sie beteiligen sich per Telefon oder an der Online-Diskussion auf srf1.ch.</t>
         </is>
       </c>
     </row>
@@ -4502,8 +4472,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>.   Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.   Gegen Zwangsproduktion: Bauernverband, Wirtschaftsverbände und Bürgerliche warnen vor der  Massentierhaltungsinitiative.  Die in der Verfassung festgeschriebene Würde des Tieres soll endlich auch in der Landwirtschaft eingehalten werden. Das fordert die am 25. September vors Volk kommende Initiative «Keine Massentierhaltung in der Schweiz». Zu den Forderungen gehören ein täglicher Gang ins Freie, schonendere Schlachtmethoden und viel weniger Tiere pro Weidefläche und Stall. Der letzte Punkt zielt vor allem auf die Hühner und Schweinemast. Das Begehren wolle den Weg bereiten für eine standortgerechte und möglichst tiergerechte Landwirtschaft, betont die grüne Nationalrätin und Mitinitiantin Meret Schneider. Das Schweizer Grasland sei auf Wiederkäuer wie Kühe ausgerichtet und nicht auf die verbreitete intensive Poulet- und Schweinemast: «Von der grossen industriellen Produktion möchten wir wegkommen.»  Für die Fleischproduktion soll in Zukunft «Bio»-Standard gelten. Nun hat auch die Gegnerschaft ihren Abstimmungskampf lanciert. Mit dem Schweizer Bauernverband an der Spitze, zusammen mit dem Wirtschaftsverband Economiesuisse und dem Gewerbeverband sowie vielen bürgerlichen Parlamentarierinnen und Parlamentariern. Bauernpräsident und Mitte-Nationalrat Markus Ritter bezeichnet diese Initiative als «unnötig». Die Schweiz habe weltweit das strengste Tierschutzgesetz und sei das einzige Land mit einer Höchstbestand-Verordnung. Daraus ergäben sich viel kleinere Tierbestände als in den umliegenden Ländern oder irgendwo auf der Welt. Das sei Irreführung, kontert Meret Schneider und verweist auf hochgezüchtete Masthühner, die in den Ställen viel zu wenig Platz hätten: «Sie müssen in ihrem teils nur 30-bis 40-tätigen Leben möglichst schnell Fleisch ansetzen, so dass sie kaum auf den Beinen stehen können. Das ist keine Produktion, die den Bedürfnissen der Tiere auch nur im Ansatz Rechnung trägt.» «Ja, es ist richtig, dass wir nicht mehr fünf oder zehn Hühner halten, sondern mehr. Aber die Tierproduktion muss wirtschaftlich sein. Wenn jemand etwas speziell für das Tierwohl tun will, kann er Bio-Produkte kaufen, denn die Label-Schiene bleibt ja offen.» Unterschiedliche Ansichten über das Tierwohl sind das Eine, die wirtschaftlichen Auswirkungen der Initiative das Andere. Economiesuisse-Präsident Christoph Mäder warnt: «Hier soll eine Zwangsproduktion herbeigeführt werden, für die offenbar keine grössere Nachfrage besteht. Der freie Markt würde vollends ausgeschaltet.» Laut Mäder würden bei einer Annahme der Initiative die Fleischpreise um 20 bis 40 Prozent steigen. Das würde nach seinen Worten voll auf Konsumentinnen und Konsumenten überwälzt. Ja, Fleisch werde teurer, aber das sei auch richtig so, betont Mit-Initiantin Meret Schneider: «Schweizerinnen und Schweiz essen ohnehin zu viel Fleisch und ein Drittel unseres Essens landet als Food Waste im Abfall.» Solange Privathaushalte so viel gekauftes Essen wegwärfen, kann mir niemand sagen, die Lebensmittel seien grundsätzlich zu teuer.» Welche Tierhaltung, welche Fleischproduktion will die Schweiz also? Und zu welchem Preis? Wessen Argumente mehr überzeugen, wird sich im Herbst an der Urne zeigen.  Echo der Zeit, 13.06.2022, 18:00 Uhr Tierschutz im Nationalrat</t>
         </is>
       </c>
     </row>
@@ -4547,8 +4516,7 @@
         <is>
           <t>.   Im Herbst stimmt die Schweiz über die Initiative gegen Massentierhaltung ab. Ein wichtiger Diskussionspunkt: das Fleisch. In Zukunft soll in der Produktion überall der Bio-Standard gelten. Dadurch würde inländisches Fleisch teurer werden. Die Initiative scheidet die Geister. 28.06.2022, 19:17 Meret Schneider ist Mitinitiantin der Massentierhaltungsinitiative und Nationalrätin der Grünen. In der SRF-Sendung Arena brachte sie ihr Anliegen auf den Punkt: «Wir sollten zurück zum Sonntagsbraten: Also ein- bis zweimal pro Woche Fleisch essen, aber solches von Tieren, die ein einigermassen gutes Leben hatten.» Die Initiative will die Massentierhaltung in der Schweiz verbieten und die Würde der Tiere in der landwirtschaftlichen Tierhaltung in die Verfassung aufnehmen. Zum Beispiel mit einem täglichen Gang ins Freie, schonenderen Schlachtmethoden und viel weniger Tieren pro Weidefläche und Stall. Zudem will die Initiative weg von der industriellen Fleischproduktion. Das betrifft vor allem die industrielle Hühner- und Schweinemast. Der Bundesrat lehnt die Initiative ab.  Tatsächlich hat sich der Fleischkonsum in der Schweiz immer wieder verändert. Die Schweizer Historikerin Gisela Hürlimann sagt, es fehle zwar die exakte Datenlage, aber der Fleischkonsum sei früher viel tiefer gewesen. Gutes Fleisch, meist Rindfleisch, sei bis etwa 1900 etwas für Privilegierte gewesen. Erst um 1950 wurde Fleisch für die breite Masse zugänglich. Damals wurden rund 30 Kilogramm pro Kopf und Jahr gegessen. Dann sei der Konsum angestiegen, so Hürlimann. «Wir beobachten seit 1950 zwei Entwicklungen: Einerseits wird aus dem Rinderland Schweiz mit Bratwurst, Voressen oder Sonntagsbraten ein Land des Schweinefleischkonsums mit Cervelat, Schweineschnitzel und Kotelett. Zweitens geht der Trend in den letzten 20 Jahren zu einem deutlich tieferen Fleischkonsum.» Während der Gesamtfleischkonsum in den letzten Jahren stagniert oder leicht zurückgeht, essen Schweizerinnen und Schweizer immer mehr Poulet. Dies, da es als gesund und fettarm gilt, erklärt der Direktor des Schweizer Bauernverbands, Martin Rufer. Pro Jahr und Person essen Herr und Frau Schweizer 51 Kilogramm Fleisch. Davon sind 26 Kilogramm Schweinefleisch und 14 Kilogramm Huhn. Das sei viel zu viel, sagt der Landwirtschaftsberater Eric Meili. «Wir müssen unseren Fleischkonsum reduzieren. Dabei müssen wir aber genau hinschauen, welches Fleisch wir reduzieren.» Meili war 30 Jahre lang am Forschungsinstitut für biologischen Landbau (Fibl) tätig. Für ihn sei vor allem die intensive Poulet- und Schweinefleischproduktion problematisch. Dies da dafür hochwertiges Getreide den Tieren verfüttert wird, das eigentlich Menschen ernähren könnte. Die Schweiz sei ein Grasland und auf Wiederkäuer wie Kühe ausgerichtet. «Wir müssen verhindern, dass unsere Tiere den Armen auf dieser Welt das Getreide wegfressen. Das kann weder moralisch noch ethisch die Lösung sein.» Da die Massentierhaltung beim Poulet- und Schweinefleisch ansetzt, gehe die Massentierhaltungsinitiative in die richtige Richtung. Ganz anders sieht dies der Schweizer Bauernverband, der die Initiative bekämpft. Rufer sagt, man könne den Konsumentinnen und Konsumenten nicht befehlen, was sie essen sollten und was nicht. «Diese Initiative würde dazu führen, dass die Produktion von Poulet in der Schweiz massiv zurückgehen würde. Wir rechnen mit einem Minus von 90 Prozent.» Rufer befürchtet, dass der Konsum trotz der Initiative nicht weniger würde und dadurch mehr Fleisch importiert werden würde. «Wir importieren bereits heute rund 50’000 Tonnen Poulet – teilweise aus Ländern mit sehr laschen Schutzbestimmungen.» Fleischproduktion und Fleischkonsum: Hoch emotional und umstritten. Wessen Argumente mehr überzeugen, wird sich bei der Abstimmung am 25. September 2022 zeigen. Echo der Zeit, 28.06.2022, 18:00 Uhr
                 ;                                         
-                        gors/kurd; fise Weniger Fleischkonsum Massentierhaltungsinitiative Massentierhaltungs-Initiative 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        gors/kurd; fise Weniger Fleischkonsum Massentierhaltungsinitiative Massentierhaltungs-Initiative</t>
         </is>
       </c>
     </row>
@@ -4783,8 +4751,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>. Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Ein Arbeitnehmer- und ein Arbeitgebervertreter streiten im «Kassensturz» über Vor- und Nachteile einer 13. AHV-Rente.  Live im «Kassensturz»-Studio kreuzen Befürworter und Gegner einer 13. AHV-Rente die Klingen. Beide Lager sehen sich nicht nur als Vertreter einer Seite, sondern haben – jeweils aus ihrer Optik – auch das Wohl von Konsumentinnen und Konsumenten im Blick. Der Befürworter: Daniel Lampart, Chefökonom und Sekretariatsleiter beim Schweizerischen Gewerkschaftsbund SGB. Für ihn ist klar, dass Rentnerinnen und Rentnern in der Schweiz wegen gestiegener Krankenkassenprämien und Mieten und höheren Lebensmittelpreisen eine Monatsrente quasi weggefressen wurde. «Man muss jetzt den Leuten etwas zurückgeben und das ausgleichen, anstatt dass man in der AHV Reserven aufbaut.» Der Gegner: Gian-Luca Lardi, Vizepräsident des Schweizerischen Arbeitgeberverbands und Präsident des Schweizerischen Baumeisterverbands. Er sieht das ganz anders und argumentiert mit der Kaufkraft, die über die Jahre gewachsen sei. «Meine Eltern haben mit ihrer AHV heute 19 Prozent mehr Kaufkraft als vor 30 Jahren meine Grosseltern.» 90 Prozent der Leute, die eine 13. AHV-Rente bekommen würden, hätten diese gar nicht nötig, stellt er in den Raum. Daniel Lampart vermutet hinter solchen Aussagen Kalkül. «Ein Grund, wieso die Arbeitgeber gegen eine 13. AHV-Rente sind, ist: Bei der AHV müssen sie mitzahlen.» Gian-Luca Lardi kontert, dass bei einer Annahme der Vorlage möglicherweise die Mehrwertsteuer erhöht werden müsste. Das würde alle belasten, auch die ärmsten. «Darum ist die Initiative nicht gerecht.» Ausserdem würde die Rentnergeneration gegen die Jungen ausgespielt. «Das ist asozial!», so Lardi. Gewerkschafter Lampart sieht allfällige höhere AHV-Lohnabzüge, eine andere diskutierte Finanzierungsstrategie, als Investment der Jugend in ihre künftige Rente. Mit ein paar Franken mehr Lohnabzug pro Monat bekomme man über 100 Franken im Monat mehr Rente. Das sei eine Rendite, wie sie keine Bank bieten könne, so Lampart. Einig sind sich Kontrahenten, dass bei den finanzschwächsten Rentnern Handlungsbedarf besteht. Über den Weg der Armutsbekämpfung gehen die Meinungen allerdings schon wieder auseinander. Während Arbeitgeber-Vertreter Lardi vor allem die Ergänzungsleistungen (EL) als probates Mittel erachtet, spricht sich Gewerkschafter Daniel Lampart für eine höhere Rente aus: «In unserem Land ist so viel Geld da, dass wir Leuten, die ein Leben lang gearbeitet haben, einigermassen eine Rente, die zum Leben reicht, zahlen können.» Noch rund viereinhalb Wochen, dann stimmt die Schweizer Stimmbevölkerung über die Initiative für eine 13. AHV-Rente ab. Laut der aktuellen SRG-Umfrage sagen 61 Prozent ‘Ja’ oder ‘Eher Ja’ zur Vorlage, 36 Prozent geben an ‘Nein’ oder ‘Eher Nein’ zu stimmen. 3 % der Befragten sind noch unentschlossen oder wollten keine Antwort geben. Bei der Abstimmung über die 13. AHV-Rente muss die Hürde des Ständemehrs gemeistert werden. (Erste Welle der SRG-SSR-Trendbefragung zu den Volksabstimmungen vom 3. März 2024 vom Forschungsinstitut gfs.bern. Realisiert zwischen dem 8. und dem 21. Januar 2024 bei 19’490 Stimmberechtigten. Der statistische Fehlerbereich beträgt +/-2.8 Prozentpunkte.)    Kassensturz, 30.01.24, 21:05 Uhr «dialog» Delegiertenversammlungen 13. AHV-Rente im Umfragehoch Erste SRG-Umfrage Abstimmung am 3. März 2024</t>
         </is>
       </c>
     </row>
@@ -4912,8 +4879,7 @@
         <is>
           <t>.   15.04.2024, 11:10 Die Hauptkritik des überparteilichen Nein-Komitees: Die «Kostenbremse-Initiative» erkläre nicht, wie die Krankenkassenkosten gedrückt werden sollen. Das Gefährliche an der Initiative sei der starre Mechanismus, «diese völlig sachfremde Koppelung zwischen BIP und Löhnen und der obligatorischen Kranken­pflege­versicherung», sagt Nationalrätin Sarah Wyss (SP/BS). Die Krankenkassen müssten sich bei einer Annahme der Initiative auf den Kostendeckel berufen, teilt das Nein-Komitees bestehend aus Vertreterinnen und Vertreter von SVP, SP, FDP, GLP und Grünen sowie des Berufsverbands des Pflegefachpersonals (SBK) und des Hausärzteverbands (MFE) weiter mit. Wäre die Kostenbremse im Jahr 2000 eingeführt worden, übernähme die Grundversicherung heute 37 Prozent aller Leistungen nicht mehr, rechnet das Komitee vor. Die Initiative greife somit das solidarische Gesundheitssystem in der Schweiz in seinen Grundprinzipien an. Die «Kostenbremse-Initiative» der Mitte verlangt die Einführung einer Kostenbremse in der obligatorischen Krankenpflegeversicherung. Liegt die Steigerung der durchschnittlichen Kosten je versicherte Person und Jahr in der obligatorischen Krankenpflegeversicherung zwei Jahre nach Annahme der Initiative mehr als ein Fünftel über der Entwicklung der Nominallöhne und haben die Tarifpartner – also Kantone, Spitäler, Ärzteschaft, Krankenkassen und Pharmabranche – bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen.  Grundversicherte Patienten hätten keinen garantierten und rechtzeitigen Zugang mehr zur Versorgung. Das Privileg des «zeitlich und therapeutisch sinnvollen Zugangs» wäre laut dem Nein-Komitee den Zusatzversicherten vorbehalten. Das Pflegefachpersonal wie auch Haus- und Kinderärzte befürchten derweil schlechtere Arbeitsbedingungen bei einer Annahme. Die Initiative würde zwar die Kostenbremse einführen, zeige aber selbst keinen Weg auf, wie das Kostenwachstum gebremst werden kann. Denn die Gesundheitskosten seien grösstenteils durch Lohn- und Personalkosten – vor allem durch das Pflegepersonal – geprägt. «Dieser starre Sparkurs, den die Kostenbremse verlangt, ohne Rücksicht auf den tatsächlichen Gesundheitsbedarf der Bevölkerung, beschränkt die Ressourcen für unsere Gesundheitsversorgung unnötig», sagt Patrick Hässig (GLP). Haus­ärzte­verbands­präsident Philippe Luchsinger warnt derweil vor fehlenden Finanzmitteln für die Spitäler und das gesamte Gesundheitswesen bei einer Annahme der Initiative am 9. Juni. Per 1. Januar 2027 würden dem Gesundheitswesen laut Luchsinger demnach zwischen einer und zwei Milliarden Franken fehlen. «Die Spitäler werden als Erstes aufschreien. Ihnen fehlt schon heute das Geld und sie werden mit Steuergeldern gerettet werden müssen.» Bundesrat, Parlament und Kantone anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab, weil die ausschliessliche Koppelung des Bremsmechanismus an die Wirtschafts- und Lohnentwicklung zu kurz greife und zu starr sei. Zudem berücksichtige die Kostenbremse Faktoren wie die Alterung der Bevölkerung oder medizinisch-technische Fortschritte nicht. Info 3, 15.04.2024, 12:00 Uhr
                 ;                                         
-                        sda/gasg;stav Abstimmungskampf lanciert Kampf gegen Prämienexplosion Kampf gegen Prämienexplosion 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        sda/gasg;stav Abstimmungskampf lanciert Kampf gegen Prämienexplosion Kampf gegen Prämienexplosion</t>
         </is>
       </c>
     </row>
@@ -4955,8 +4921,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>. Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>. Die Krankenkassenprämien sollen nicht stärker steigen als die Gesamtwirtschaft und die Durchschnittslöhne. Andernfalls müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Was halten Sie davon? Diskutieren Sie mit!  In den letzten zehn Jahren sind die Kosten in der obligatorischen Krankenversicherung um etwa 31 Prozent gewachsen. Die Löhne sind im gleichen Zeitraum nur um rund 6 Prozent gestiegen. Die Krankenkassenprämien werden für immer mehr Menschen zur Belastung. Am 9. Juni 2024 kommt u.a. die Volksinitiative «Für tiefere Prämien – Kostenbremse im Gesundheitswesen» zur Abstimmung. Mit der «Kostenbremse-Initiative» will die Mitte-Partei das Wachstum der Gesundheitskosten bekämpfen. Bei einer Annahme, müssten Bundesrat, Parlament und Kantone eingreifen, wenn die Gesundheitskosten im Vergleich zur Lohnentwicklung zu stark steigen. Die Initiative verpflichtet den Bund, in der obligatorischen Krankenversicherung eine Kostenbremse einzuführen: Er muss zusammen mit den Kantonen, den Krankenkassen und den Erbringern von medizinischen Leistungen dafür sorgen, dass die Kosten nicht viel stärker steigen als die durchschnittlichen Löhne und die Gesamtwirtschaft wachsen. Beträgt das Kostenwachstum zwei Jahre nach Annahme der Initiative mehr als 20 Prozent des Wachstums der Löhne und haben die Tarifpartner bis zu diesem Zeitpunkt keine Massnahmen ergriffen, müssen Bund und Kantone kostendämpfende Massnahmen beschliessen. Die Massnahmen müssen im folgenden Jahr wirken. Wie stark die Kosten längerfristig steigen dürfen, muss das Parlament im Gesetz festlegen. Die genaue Ausgestaltung der Kostenbremse und der Massnahmen, mit denen Bund und Kantone die Kosten dämpfen sollen, wird im Initiativtext nicht näher ausgeführt. Das Parlament muss dies im Gesetz regeln. Details zur Initiative Das Hauptargument der Initiantinnen und Initianten der Kostenbremse-Initiative sind die seit Jahren steigenden Krankenkassenprämien. Die Bekämpfung des Kostenwachstums im Gesundheitswesen sei der einzige Weg, um die steigenden Prämien nachhaltig zu senken. Damit sich endlich etwas ändert, brauche es den Druck einer Volksinitiative. Mit einem entsprechenden Artikel in der Bundesverfassung, müssten alle Akteure (Bund, Kantone, Krankenkassen, Pharmaindustrie, Spitäler etc.) die Verantwortung für die Kostenentwicklung übernehmen und gemeinsam Lösungen suchen. Kostenbremse-Initiative Welche Massnahmen genau die Kosten senken sollen, lässt die Initiative offen. Diese muss das Parlament im Gesetz regeln. Möglichkeiten Kosten zu sparen gibt es viele. Ein grosses Sparpotential sieht die Mitte-Partei bei den Medikamenten, die in der Schweiz teilweise das Fünffache kosten wie im Ausland. Zudem werden zahlreiche Eingriffe immer noch stationär im Spital vorgenommen, statt ambulant. Das Sparpotenzial liege bei insgesamt 6 Milliarden Franken – ohne Qualitätseinbussen für Betroffene. Für die Initiative ausgesprochen haben sich die Mitte-Partei, die EVP und der Krankenkassenverband Santésuisse. Alle anderen Parteien, sowie die meisten Akteure im Gesundheitswesen, sind gegen die Initiative. Die Gegnerinnen und Gegner der Initiative kritisieren die Koppelung der bezahlten Leistungen der Grundversicherung an die Lohnentwicklung und die Wirtschaftsleistung. Der vorgesehene Mechanismus führe zu einem Abbau der Grundversorgung und zu einer Zweiklassenmedizin. Zudem bestehe die Gefahr einer «Rationierung» von Behandlungen. Kampf gegen Prämienexplosion Parlament und Bundesrat anerkennen die Wichtigkeit der Kostendämpfung, lehnen die Initiative aber ab. Sie haben einen Gegenvorschlag auf Gesetzesstufe erarbeitet, welcher am 29. September 2023 im Parlament angenommen wurde. Dieser sieht im Kern die Einführung von Kosten- und Qualitätszielen für das Gesundheitswesen vor. Die Grundidee besteht in der Vorgabe von Kosten- und Qualitätszielen in der Obligatorischen Krankenpflegeversicherung (OKP). Damit soll das Kostenwachstum in der OKP auf ein effizientes Mass beschränkt werden. Diese Ziele stärken die Transparenz über die Kostenentwicklung, die mit Blick auf Faktoren wie die demografische Entwicklung, die Entwicklung von Löhnen und Preisen, den medizinischen Fortschritt sowie das vorhandene Effizienzpotenzial als gerechtfertigt erscheint. Die Kosten- und Qualitätsziele werden nach vorgängiger Anhörung der Versicherer, der Versicherten, der Kantone und der Leistungserbringer jeweils für vier Jahre vom Bundesrat festgelegt. Auch die Kantone können eigene Kosten- und Qualitätsziele festlegen, wobei sie die Vorgaben des Bundesrates berücksichtigen und die Versicherer, Versicherten und Leistungserbringer vorgängig anhören. Eine Kommission für das Kosten- und Qualitätsmonitoring überwacht die Entwicklung der Kosten und gibt zuhanden des Bundes und der Tarifpartner Empfehlungen zu geeigneten Massnahmen ab. Details zum Gegenvorschlag  Bei einer Ablehnung der Initiative würde der indirekte Gegenvorschlag in Kraft treten, sofern kein Referendum zustande kommt. Dieser sei zwar ein Schritt in die richtige Richtung, sagt Yvonne Bürgin, Vizepräsidentin der Mitte-Partei. Jedoch seien die vorgeschlagenen Massnahmen zu wenig konkret, eine Stabilisierung der Gesundheitskosten sei nicht garantiert. Nur eine Verfassungsänderung erhöhe den Druck auf die verschiedenen Akteure, um kostensenkende Massnahmen umzusetzen. Ist die Kostenbremse-Initiative nützlich oder schädlich? Diskutieren Sie mit in der Kommentarspalte.  Radio SRF 1, 02.04.2024, 16:40 Uhr Steigende Gesundheitskosten Aus Arena vom 22.03.2024, 22:30 Uhr Ambulant statt Stationär</t>
         </is>
       </c>
     </row>
@@ -5252,8 +5217,7 @@
         <is>
           <t>.   Wie schon bei der Trinkwasser-Initiative könnte es zu einem heftigen Schlagabtausch kommen.  Die gelb-grün-blauen Fahnen an den Balkonen der Befürworterinnen und Befürworter der Biodiversitätsinitiative erhalten Konkurrenz: Die Gegner des Volksbegehrens haben ihre Fahne heute vorgestellt. «Nein! Zur extremen Biodiversitätsinitiative» steht dort weiss auf rotem Grund geschrieben. Unter den Gegnern ist Mitte-Nationalrat und Bauernpräsident Markus Ritter. Ihm gehen die Forderungen zu weit. Denn die Initiative will nicht nur mehr Fläche für die Artenvielfalt ausscheiden, sondern auch die verschiedenen Landschaften und Ortsbilder schonen – auch ausserhalb von Schutzgebieten. «Die Initiative geht weit über die Biodiversität hinaus», sagt Ritter denn auch. Entsprechend breit sei das Komitee gegen das Begehren aufgestellt. Und so spannen Landwirtschaft und Wirtschaft gegen die Initiative zusammen. Sie befürchten, diese würde eine nachhaltige Lebensmittel- und Energieproduktion massiv einschränken. Ausserdem würden die Bäuerinnen und Bauern bereits viel für die Artenvielfalt machen, wird argumentiert. Das sagen die Initianten:
 Der Mensch brauche die Biodiversität, um zu überleben. Deshalb müsse eine intakte und vielfältige Natur erhalten bleiben. Bereits seien in der Schweiz ein Drittel der Tier- und Pflanzenarten ausgestorben oder gefährdet, die Hälfte aller Lebensräume seien bedroht. Die überbordende Überbauung, Zersiedelung und intensive Landnutzung müsse gestoppt werden. Zudem schütze eine intakte Artenvielfalt vor Klimawandel und Umweltkatastrophen. Das sagen die Gegner:
-Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+Mit der Initiative würden 30 Prozent der Fläche der Schweiz praktisch unantastbar. Das schränke die Lebensmittelproduktion, also die Landwirtschaft, zu stark ein. Doch auch die einheimische, nachhaltige Energieproduktion werde behindert. Ebenso wie die Wald- und Holzwirtschaft. Ausserdem würden durch die Initiative die Berggebiete und der Tourismus eingeschränkt.  Das aber reicht Raffael Ayé nicht. Der Geschäftsleiter von Birdlife gehört mit seiner Organisation zu den Initiantinnen der Biodiversitätsinitiative. Die geballte Ladung an Gegnerinnen fürchtet er nicht. Sorgen macht ihm hingegen, dass das Problem unterschätzt werde. «Es gibt eine Diskrepanz zwischen vielen Bauernbetrieben, die sagen, sie wollten mehr tun für die Biodiversität, und den Verbänden, die das Problem noch nicht erkannt haben.» Diese zwei Seiten und zwei Ansichten, speziell auch in bäuerlichen Kreisen, könnten in den kommenden drei Monaten zu einem heftigeren Abstimmungskampf führen. 2021 als über die beiden Agrarvorlagen Trinkwasser- und die Pestizid-Initiative abgestimmt wurde, kam es im Abstimmungskampf zu Beschimpfungen, Drohungen und Sachbeschädigungen Diesmal haben die Initiantinnen und Initianten einen Appell lanciert, der zu einem fairen, sachgerechten Abstimmungskampf aufruft. Das unterstützen auch die Gegner. Doch Markus Ritter betont: «Wir erwarten aber auch, dass die Gegenseite bei den Fakten bleibt und uns nicht einen Verstoss gegen Treu und Glauben vorwirft. Denn das trifft uns Bauern hart.» Ritter spielt damit auf die Ereignisse dieser Woche an: Der Ständerat hat eine Vorlage für mehr Biodiversität auf Ackerflächen definitiv versenkt. Umweltschützer warfen den Politikern Wortbruch vor. Die Vorlage sei eine Art indirekter Gegenvorschlag bei den Agrarinitiativen von 2021 gewesen. Das alles deutet darauf hin, dass sich die beiden Lager im Abstimmungskampf um die Biodiversitätsinitiative nichts schenken werden. Am 22. September entscheidet das Volk über die Vorlage. Echo der Zeit, 13.6.2024, 18:00 Uhr;kesm Bauernpräsident im Interview Artenvielfalt auf Äckern Artenvielfalt vs. Energie? Besuch im Naturschutzgebiet Biodiversitätsinitiative</t>
         </is>
       </c>
     </row>
@@ -5507,8 +5471,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>.    Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+          <t>.    Manchmal kommt es anders, als man denkt. Mit Betonung auf «manchmal». Bei der Umweltverantwortungsinitiative läuft nämlich alles so, wie man es von Volksinitiativen kennt: Während des Abstimmungskampfs rücken ihre vermeintlichen Schwächen in den Fokus, und das Nein baut sich auf. Genau dieser Effekt ist nun eingetreten. Lehnte kurz vor Weihnachten noch eine relative Mehrheit von 49 Prozent der Befragten die Initiative ab, sind es in der zweiten SRG-Umfrage 61 Prozent. Damit stehen die Chancen auf einen Coup an der Urne schlecht. Die Schweiz darf nur so viele natürliche Ressourcen nutzen und Schadstoffe freisetzen, dass die Lebensgrundlagen der Menschheit nicht gefährdet werden. Heute wären laut Bundesamt für Umwelt (Bafu) drei Erden nötig, wenn alle so leben würden wie die Schweizer Bevölkerung. Als Massstab dienen die sogenannten «planetaren Grenzen». Das Konzept einer Forschungsgruppe rund um den schwedischen Forscher Johan Rockström umfasst verschiedene Bereiche. Namentlich gelten soll die Bestimmung in der Schweiz für die Bereiche Klimaveränderung, Biodiversitätsverlust, Wasserverbrauch, Bodennutzung sowie Stickstoff- und Phosphoreinträge. Innerhalb von zehn Jahren nach Annahme der Initiative müsste diese Vorgabe eingehalten sein. Um das zu erreichen, bräuchte es einen grundlegenden Wandel in der Wirtschaft und der Gesellschaft. Dieser Wandel soll gemäss Initiative sozialverträglich sein.  Das Verdikt des Forschungsinstituts GFS Bern, das die Umfrage im Auftrag der SRG SSR durchführte: Es gibt einen «grundsätzlichen Abwehrreflex» gegen die Initiative der Jungen Grünen. «Sie ist bereits aus der Defensive gestartet», sagt Politologin Martina Mousson. Die arg bröckelnde Zustimmung sei «ein fatales Zeichen». 86 Prozent der Befragten rechnen denn auch damit, dass die Vorlage an der Urne scheitert. Auch für Mousson weisen «alle Indikatoren konsistent Richtung Nein». Das Anliegen geniesst zwar starke Rückendeckung im links-grünen Lager – ein vertrautes Bild bei Umweltinitiativen. «Ausserhalb ihres eigenen parteipolitischen Umfelds kann die Vorlage aber nicht ausreichend überzeugen», schätzt die Politologin. Bereits bei der Grünliberalen Partei herrscht Uneinigkeit. Die Parteiführung hat die Nein-Parole herausgegeben, die Basis liegt (noch) im Ja. Diese Spaltung ist schon im Parteinamen angelegt: Die einen werten das grüne Element höher als das liberale – und umgekehrt. Bei den bürgerlichen Parteien gewinnt die Initiative keinen Blumentopf. Bei der FDP und SVP lehnen sie über 90 Prozent der Stimmberechtigten ab. Das Nein kommt wuchtig daher, trotzdem sind viele Menschen dem Grundanliegen der Initiative freundlich gesinnt. «Mit der Idee einverstanden zu sein, heisst aber noch lange nicht, dass man die Lösung auch mitträgt», sagt Mousson. Immerhin finden 60 Prozent der Befragten, dass es einen schonenderen Umgang mit den natürlichen Ressourcen braucht. 57 Prozent sind der Ansicht, dass die Schweiz Verantwortung für die ökologischen Schäden übernehmen soll, die sie im Ausland verursacht. Aber: Über zwei Drittel der Befragten befürchten, dass eine Annahme der Initiative fatale Folgen für den Wirtschaftsstandort Schweiz hätte. Vielen geht die Vorlage schlicht zu weit. «Es herrscht das Gefühl vor, dass eine Umsetzung nur mit höheren Preisen und Lebenshaltungskosten möglich ist. Das steht im Widerspruch zur geforderten Sozialverträglichkeit der Initiative», erklärt Mousson. Bemerkenswert: Wer weniger verdient, hat grössere Sympathien für die Initiative. Stimmberechtigte aus Haushalten mit den tiefsten Einkommen sind derzeit sogar im Ja. Laut GFS Bern stossen die Pro-Argumente hier noch auf mehr Gehör. Allerdings hat auch bei dieser Einkommensgruppe ein Nein-Trend eingesetzt. Bei den Frauen ist die mehrheitliche Unterstützung bereits weggebrochen – obwohl sie traditionell eine grössere Sensibilität für Umweltthemen zeigen als Männer. Mousson wertet auch dies als Hinweis, dass die Initiative zu wenig Strahlkraft hat. Ihr Fazit: «Ökologie ist gewünscht und breit akzeptiert in der Bevölkerung. Daneben muss aber auch Ökonomie möglich sein.»  Die Umfrage zur Abstimmung vom 9. Februar 2025 ist im Auftrag der SRG SSR vom Forschungsinstitut GFS Bern zwischen dem 5. und 23. Januar 2025 durchgeführt worden. Insgesamt wurden die Antworten von 15’996 Stimmberechtigten für die Auswertung berücksichtigt. Befragungsarten: telefonisch, online und via Social Media Telefonisch befragt wurden Personen mit Wohnsitz in der Schweiz. Die Interviews wurden per Festnetz und Handy durchgeführt. Diese Stichprobe ist sprachregional gewichtet und repräsentativ für die Schweizer Stimmberechtigten. Zusätzlich wurden Personen online befragt. Die Teilnehmenden wurden dazu über die Webportale der SRG rekrutiert.Da sich die Teilnehmenden der Umfrage selber rekrutieren (sogenanntes Opt-in-Verfahren), ist die Zusammensetzung der Stichprobe nicht repräsentativ für die Grundgesamtheit. So nehmen zum Beispiel typischerweise mehr Männer als Frauen an politischen Umfragen teil. Die Daten werden aber mittels Gewichtungen an die realen Verhältnisse der Stimmberechtigten angenähert. Es werden dabei räumliche (Wohnort), soziodemografische (Alter oder Geschlecht) und politische Gewichtungsfaktoren eingesetzt. Durch diese Gewichtung wird die Repräsentativität der Stichprobe optimiert. Ziel ist, die Stichprobengrösse in der französisch- und italienischsprachigen Schweiz zu erhöhen. Weitere Personen wurden über Social-Media-Kanäle befragt. Rekrutiert wurden diese Befragten über Social Media Ads vom Unternehmen Boomerang Ideas. Die über KI generierten Ads werden gezielt auf verschiedenen Plattformen für Personen mit unterschiedlichem Alter, aus verschiedenen Regionen und mit beiden Geschlechtern ausgespielt. Befragt wurden einzig die Stimmabsichten zur Vorlage, keine Argumente. Weitere Informationen zur Methode Umfragen sind Momentaufnahmen Der statistische Fehler beträgt gemäss GFS Bern +/-2.8 Prozentpunkte. Bei einem Ergebnis von 50 Prozent liegt der effektive Wert mit 95-prozentiger Wahrscheinlichkeit zwischen 47.2 und 52.8 Prozent. Dabei sind kleinere Abweichungen wahrscheinlicher, grössere unwahrscheinlicher. Das Forschungsinstitut GFS Bern führte zwei Umfragen zur Abstimmung vom 9. Februar 2025 durch. Die Autoren der Studie betonen, die Ergebnisse seien kein vorweggenommenes Abstimmungsergebnis, sondern eine Momentaufnahme zur Zeit der Befragung. Aussagen über den Trend in der Meinungsbildung können allenfalls bei der zweiten Umfrage, welche vor der Schlussmobilisierung durchgeführt wird, gemacht werden. Den gesamten Bericht zur SRG-Umfrage finden Sie auf der Seite von GFS Bern.  Hier finden Sie News und Hintergründe zur nationalen Vorlage sowie den Abstimmungen und Wahlen in den Regionen am 9. Februar 2025.  Heute Morgen, 29.01.2025, 6:00 Uhr Aus SRF 4 News vom 29.01.2025, 06:22 Uhr Auf einen Blick «Abstimmungs-Arena» Knappes Nein in SRG-Umfrage</t>
         </is>
       </c>
     </row>
@@ -5552,8 +5515,7 @@
         <is>
           <t>.   16.12.2024, 10:14 Die Initiative sei unnötig, weil die Schweiz bereits auf dem Weg sei, Emissionen- und Ressourcenverbrauch zu reduzieren, hiess es vor den Medien in Bern zur Lancierung der Nein-Kampagne. Die Initiative führe zu explodierenden Preisen, Kaufkraftverlust, Konsumverzicht und einschneidendem Wohlstandsverlust. In der überparteilichen Allianz sind FDP, SVP, Mitte und das Konsumentenforum sowie die Branchenorganisation der im Infrastrukturbau tätigen Baufirmen, Infra Suisse, vertreten. Die Initiative der Jungen Grünen verlangt, dass die Schweiz innerhalb von zehn Jahren ihre Umweltbelastung gesamthaft um rund 67 Prozent reduziert. Die Schweiz überschreitet sogenannte Belastungsgrenzen stark. Die Klimabelastung ist 19 Mal zu hoch, das Artensterben 3.8 Mal, der Wasserverbrauch 2.7 Mal, das Düngen 2.4 Mal. Diese Überschreitungen sollen laut der Initiative binnen zehn Jahren abgebaut werden. Dieser Zeitplan ist für die Allianz «utopisch und unverantwortlich». Zudem sei dies unnötig, weil es der Schweiz gelungen sei, das Wirtschaftswachstum vom Ressourcenverbrauch zu entkoppeln. Die Volksinitiative fordert auch einen Verfassungsartikel, wonach der Umweltschutz neu an erster Stelle steht. Dies sei nicht nötig, da laut den Gegnerinnen und Gegnern das Ziel bereits in Artikel 73 der Bundesverfassung verankert ist, hiess es. Die Folgen der «Verarmungsinitiative» wären für die Bevölkerung und die Unternehmen aus Sicht der Initiativgegner verheerend. Die Preise für Mieten, Lebensmittel und vor allem für Mobilität würden explodieren, warnt die überparteiliche Allianz. Dabei treffe die Initiative die Ärmsten gleich dreifach; nicht nur durch den massiven Anstieg der Preise für Heizung, Benzin und Grundnahrungsmittel, sondern auch durch die radikale Kürzung staatlicher Leistungen, weil dem Staat Steuereinnahmen fehlten und er in die Transformation der Infrastruktur investieren müsse. Zuletzt würden zahlreiche Menschen, insbesondere die guten Steuerzahler, auswandern, um dem «ökologischen Korsett» zu entgehen. Das Stimmvolk wird am 9. Februar 2025 über die von den Jungen Grünen eingereichte Initiative «für eine verantwortungsvolle Wirtschaft innerhalb der planetaren Grenzen (Umweltverantwortungsinitiative)» befinden. Bundesrat und Parlament lehnen die Initiative ab. SRF 4 News, 16.12.2024, 12:30 Uhr
                 ;                                         
-                        sda/hosb/spic;schn «Extreme Konsequenzen» Umweltverantwortungsinitiative 
-        Wenn Sie sich erneut für die Kommentarfunktion registrieren möchten, melden Sie sich bitte beim Kundendienst von SRF. SRF Schweizer Radio und Fernsehen,Zweigniederlassung der Schweizerischen Radio- und Fernsehgesellschaft</t>
+                        sda/hosb/spic;schn «Extreme Konsequenzen» Umweltverantwortungsinitiative</t>
         </is>
       </c>
     </row>

--- a/Data_ML_cleaned.xlsx
+++ b/Data_ML_cleaned.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,25 +495,10 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>result_clean</t>
+          <t>split_info</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>split_info</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>initiative_short</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>text_length</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doc_len</t>
         </is>
@@ -567,23 +552,10 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Für den Schutz vor Waffengewalt</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>2261</v>
-      </c>
-      <c r="P2" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>162</v>
       </c>
     </row>
@@ -635,23 +607,10 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Für den Schutz vor Waffengewalt</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>2263</v>
-      </c>
-      <c r="P3" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>132</v>
       </c>
     </row>
@@ -703,23 +662,10 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Für den Schutz vor Waffengewalt</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>1911</v>
-      </c>
-      <c r="P4" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>120</v>
       </c>
     </row>
@@ -770,23 +716,10 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Für den Schutz vor Waffengewalt</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>1804</v>
-      </c>
-      <c r="P5" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>121</v>
       </c>
     </row>
@@ -837,23 +770,10 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Für den Schutz vor Waffengewalt</t>
-        </is>
-      </c>
-      <c r="O6" t="n">
-        <v>1096</v>
-      </c>
-      <c r="P6" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>71</v>
       </c>
     </row>
@@ -903,23 +823,10 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>3968</v>
-      </c>
-      <c r="P7" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>254</v>
       </c>
     </row>
@@ -965,23 +872,10 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O8" t="n">
-        <v>6501</v>
-      </c>
-      <c r="P8" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>414</v>
       </c>
     </row>
@@ -1033,23 +927,10 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>2097</v>
-      </c>
-      <c r="P9" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>127</v>
       </c>
     </row>
@@ -1101,23 +982,10 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O10" t="n">
-        <v>1887</v>
-      </c>
-      <c r="P10" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>113</v>
       </c>
     </row>
@@ -1169,23 +1037,10 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>4336</v>
-      </c>
-      <c r="P11" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>261</v>
       </c>
     </row>
@@ -1237,23 +1092,10 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>2516</v>
-      </c>
-      <c r="P12" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>161</v>
       </c>
     </row>
@@ -1305,23 +1147,10 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Gegen Masseneinwanderung</t>
-        </is>
-      </c>
-      <c r="O13" t="n">
-        <v>5066</v>
-      </c>
-      <c r="P13" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>333</v>
       </c>
     </row>
@@ -1373,23 +1202,10 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Pädophilen-Initiative</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>4543</v>
-      </c>
-      <c r="P14" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>294</v>
       </c>
     </row>
@@ -1441,23 +1257,10 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Pädophilen-Initiative</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>5945</v>
-      </c>
-      <c r="P15" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>395</v>
       </c>
     </row>
@@ -1509,23 +1312,10 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Pädophilen-Initiative</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>3274</v>
-      </c>
-      <c r="P16" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>207</v>
       </c>
     </row>
@@ -1577,23 +1367,10 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Pädophilen-Initiative</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>3548</v>
-      </c>
-      <c r="P17" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>226</v>
       </c>
     </row>
@@ -1645,23 +1422,10 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Pädophilen-Initiative</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>1373</v>
-      </c>
-      <c r="P18" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>88</v>
       </c>
     </row>
@@ -1732,23 +1496,10 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Erbschaftssteuerreform</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>4536</v>
-      </c>
-      <c r="P19" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>297</v>
       </c>
     </row>
@@ -1808,23 +1559,10 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Erbschaftssteuerreform</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>2591</v>
-      </c>
-      <c r="P20" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>173</v>
       </c>
     </row>
@@ -1876,23 +1614,10 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Erbschaftssteuerreform</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
-        <v>2970</v>
-      </c>
-      <c r="P21" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>185</v>
       </c>
     </row>
@@ -1944,23 +1669,10 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Erbschaftssteuerreform</t>
-        </is>
-      </c>
-      <c r="O22" t="n">
-        <v>4574</v>
-      </c>
-      <c r="P22" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>299</v>
       </c>
     </row>
@@ -2012,23 +1724,10 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Erbschaftssteuerreform</t>
-        </is>
-      </c>
-      <c r="O23" t="n">
-        <v>3488</v>
-      </c>
-      <c r="P23" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>220</v>
       </c>
     </row>
@@ -2080,23 +1779,10 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Erbschaftssteuerreform</t>
-        </is>
-      </c>
-      <c r="O24" t="n">
-        <v>4126</v>
-      </c>
-      <c r="P24" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>270</v>
       </c>
     </row>
@@ -2157,23 +1843,10 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Abschaffung der Billag-Gebühren</t>
-        </is>
-      </c>
-      <c r="O25" t="n">
-        <v>6701</v>
-      </c>
-      <c r="P25" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>423</v>
       </c>
     </row>
@@ -2229,23 +1902,10 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Abschaffung der Billag-Gebühren</t>
-        </is>
-      </c>
-      <c r="O26" t="n">
-        <v>3219</v>
-      </c>
-      <c r="P26" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>203</v>
       </c>
     </row>
@@ -2297,23 +1957,10 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Abschaffung der Billag-Gebühren</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>3593</v>
-      </c>
-      <c r="P27" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>232</v>
       </c>
     </row>
@@ -2365,23 +2012,10 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Abschaffung der Billag-Gebühren</t>
-        </is>
-      </c>
-      <c r="O28" t="n">
-        <v>2379</v>
-      </c>
-      <c r="P28" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>160</v>
       </c>
     </row>
@@ -2433,23 +2067,10 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Abschaffung der Billag-Gebühren</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>4079</v>
-      </c>
-      <c r="P29" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>259</v>
       </c>
     </row>
@@ -2504,23 +2125,10 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Hornkuh-Initiative</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>2872</v>
-      </c>
-      <c r="P30" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>191</v>
       </c>
     </row>
@@ -2580,23 +2188,10 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Hornkuh-Initiative</t>
-        </is>
-      </c>
-      <c r="O31" t="n">
-        <v>4370</v>
-      </c>
-      <c r="P31" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>295</v>
       </c>
     </row>
@@ -2650,23 +2245,10 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Hornkuh-Initiative</t>
-        </is>
-      </c>
-      <c r="O32" t="n">
-        <v>2262</v>
-      </c>
-      <c r="P32" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>156</v>
       </c>
     </row>
@@ -2718,23 +2300,10 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Hornkuh-Initiative</t>
-        </is>
-      </c>
-      <c r="O33" t="n">
-        <v>2854</v>
-      </c>
-      <c r="P33" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>185</v>
       </c>
     </row>
@@ -2786,23 +2355,10 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Selbstbestimmungsinitiative</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>3687</v>
-      </c>
-      <c r="P34" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>234</v>
       </c>
     </row>
@@ -2854,23 +2410,10 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Selbstbestimmungsinitiative</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>5644</v>
-      </c>
-      <c r="P35" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>361</v>
       </c>
     </row>
@@ -2928,23 +2471,10 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Selbstbestimmungsinitiative</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>3739</v>
-      </c>
-      <c r="P36" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>230</v>
       </c>
     </row>
@@ -3024,23 +2554,10 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Selbstbestimmungsinitiative</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>12067</v>
-      </c>
-      <c r="P37" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>745</v>
       </c>
     </row>
@@ -3092,23 +2609,10 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Selbstbestimmungsinitiative</t>
-        </is>
-      </c>
-      <c r="O38" t="n">
-        <v>1559</v>
-      </c>
-      <c r="P38" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>102</v>
       </c>
     </row>
@@ -3160,23 +2664,10 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Begrenzungsinitiative</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>4397</v>
-      </c>
-      <c r="P39" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>282</v>
       </c>
     </row>
@@ -3228,23 +2719,10 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Begrenzungsinitiative</t>
-        </is>
-      </c>
-      <c r="O40" t="n">
-        <v>1671</v>
-      </c>
-      <c r="P40" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3296,23 +2774,10 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Begrenzungsinitiative</t>
-        </is>
-      </c>
-      <c r="O41" t="n">
-        <v>5672</v>
-      </c>
-      <c r="P41" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>354</v>
       </c>
     </row>
@@ -3387,23 +2852,10 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Begrenzungsinitiative</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>9754</v>
-      </c>
-      <c r="P42" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>615</v>
       </c>
     </row>
@@ -3455,23 +2907,10 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Begrenzungsinitiative</t>
-        </is>
-      </c>
-      <c r="O43" t="n">
-        <v>2420</v>
-      </c>
-      <c r="P43" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>149</v>
       </c>
     </row>
@@ -3523,23 +2962,10 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Begrenzungsinitiative</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
-        <v>3520</v>
-      </c>
-      <c r="P44" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>210</v>
       </c>
     </row>
@@ -3591,23 +3017,10 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Konzernverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>2962</v>
-      </c>
-      <c r="P45" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>185</v>
       </c>
     </row>
@@ -3659,23 +3072,10 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Konzernverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>2240</v>
-      </c>
-      <c r="P46" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>138</v>
       </c>
     </row>
@@ -3741,23 +3141,10 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Konzernverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>4309</v>
-      </c>
-      <c r="P47" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>291</v>
       </c>
     </row>
@@ -3825,23 +3212,10 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Konzernverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>5724</v>
-      </c>
-      <c r="P48" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>373</v>
       </c>
     </row>
@@ -3893,23 +3267,10 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Konzernverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>5495</v>
-      </c>
-      <c r="P49" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>346</v>
       </c>
     </row>
@@ -3961,23 +3322,10 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Kriegsgeschäft-Initiative</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>3715</v>
-      </c>
-      <c r="P50" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>239</v>
       </c>
     </row>
@@ -4029,23 +3377,10 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Kriegsgeschäft-Initiative</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>3621</v>
-      </c>
-      <c r="P51" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>239</v>
       </c>
     </row>
@@ -4099,23 +3434,10 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Kriegsgeschäft-Initiative</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>3781</v>
-      </c>
-      <c r="P52" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>251</v>
       </c>
     </row>
@@ -4167,23 +3489,10 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Kriegsgeschäft-Initiative</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>3414</v>
-      </c>
-      <c r="P53" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>211</v>
       </c>
     </row>
@@ -4246,23 +3555,10 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Kriegsgeschäft-Initiative</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>3122</v>
-      </c>
-      <c r="P54" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>208</v>
       </c>
     </row>
@@ -4329,23 +3625,10 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Kriegsgeschäft-Initiative</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>3574</v>
-      </c>
-      <c r="P55" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>228</v>
       </c>
     </row>
@@ -4397,23 +3680,10 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Ja zum Verhüllungsverbot</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>2005</v>
-      </c>
-      <c r="P56" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>118</v>
       </c>
     </row>
@@ -4465,23 +3735,10 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Ja zum Verhüllungsverbot</t>
-        </is>
-      </c>
-      <c r="O57" t="n">
-        <v>2027</v>
-      </c>
-      <c r="P57" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>128</v>
       </c>
     </row>
@@ -4533,23 +3790,10 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Ja zum Verhüllungsverbot</t>
-        </is>
-      </c>
-      <c r="O58" t="n">
-        <v>2721</v>
-      </c>
-      <c r="P58" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>179</v>
       </c>
     </row>
@@ -4607,23 +3851,10 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Ja zum Verhüllungsverbot</t>
-        </is>
-      </c>
-      <c r="O59" t="n">
-        <v>2936</v>
-      </c>
-      <c r="P59" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>196</v>
       </c>
     </row>
@@ -4703,23 +3934,10 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Ja zum Verhüllungsverbot</t>
-        </is>
-      </c>
-      <c r="O60" t="n">
-        <v>11076</v>
-      </c>
-      <c r="P60" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>687</v>
       </c>
     </row>
@@ -4771,23 +3989,10 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>99%-Initiative</t>
-        </is>
-      </c>
-      <c r="O61" t="n">
-        <v>3727</v>
-      </c>
-      <c r="P61" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>267</v>
       </c>
     </row>
@@ -4839,23 +4044,10 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>99%-Initiative</t>
-        </is>
-      </c>
-      <c r="O62" t="n">
-        <v>2816</v>
-      </c>
-      <c r="P62" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>199</v>
       </c>
     </row>
@@ -4907,23 +4099,10 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>99%-Initiative</t>
-        </is>
-      </c>
-      <c r="O63" t="n">
-        <v>1952</v>
-      </c>
-      <c r="P63" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>127</v>
       </c>
     </row>
@@ -4975,23 +4154,10 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>99%-Initiative</t>
-        </is>
-      </c>
-      <c r="O64" t="n">
-        <v>2877</v>
-      </c>
-      <c r="P64" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>181</v>
       </c>
     </row>
@@ -5058,23 +4224,10 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>99%-Initiative</t>
-        </is>
-      </c>
-      <c r="O65" t="n">
-        <v>7842</v>
-      </c>
-      <c r="P65" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>482</v>
       </c>
     </row>
@@ -5136,23 +4289,10 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>99%-Initiative</t>
-        </is>
-      </c>
-      <c r="O66" t="n">
-        <v>3979</v>
-      </c>
-      <c r="P66" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>237</v>
       </c>
     </row>
@@ -5212,23 +4352,10 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O67" t="n">
-        <v>3646</v>
-      </c>
-      <c r="P67" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>201</v>
       </c>
     </row>
@@ -5292,23 +4419,10 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O68" t="n">
-        <v>4155</v>
-      </c>
-      <c r="P68" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>257</v>
       </c>
     </row>
@@ -5372,23 +4486,10 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O69" t="n">
-        <v>5299</v>
-      </c>
-      <c r="P69" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>326</v>
       </c>
     </row>
@@ -5446,23 +4547,10 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O70" t="n">
-        <v>2785</v>
-      </c>
-      <c r="P70" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>169</v>
       </c>
     </row>
@@ -5514,23 +4602,10 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O71" t="n">
-        <v>3495</v>
-      </c>
-      <c r="P71" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>220</v>
       </c>
     </row>
@@ -5587,23 +4662,10 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>4116</v>
-      </c>
-      <c r="P72" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>265</v>
       </c>
     </row>
@@ -5657,23 +4719,10 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Pflegeinitiative</t>
-        </is>
-      </c>
-      <c r="O73" t="n">
-        <v>2539</v>
-      </c>
-      <c r="P73" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>165</v>
       </c>
     </row>
@@ -5736,23 +4785,10 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Justiz-Initiative</t>
-        </is>
-      </c>
-      <c r="O74" t="n">
-        <v>3873</v>
-      </c>
-      <c r="P74" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>223</v>
       </c>
     </row>
@@ -5804,23 +4840,10 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Justiz-Initiative</t>
-        </is>
-      </c>
-      <c r="O75" t="n">
-        <v>3728</v>
-      </c>
-      <c r="P75" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>246</v>
       </c>
     </row>
@@ -5872,23 +4895,10 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Justiz-Initiative</t>
-        </is>
-      </c>
-      <c r="O76" t="n">
-        <v>5406</v>
-      </c>
-      <c r="P76" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>326</v>
       </c>
     </row>
@@ -5941,23 +4951,10 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Justiz-Initiative</t>
-        </is>
-      </c>
-      <c r="O77" t="n">
-        <v>2335</v>
-      </c>
-      <c r="P77" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>150</v>
       </c>
     </row>
@@ -6009,23 +5006,10 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Justiz-Initiative</t>
-        </is>
-      </c>
-      <c r="O78" t="n">
-        <v>3989</v>
-      </c>
-      <c r="P78" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>247</v>
       </c>
     </row>
@@ -6091,23 +5075,10 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Tierversuchsverbot-Initiative</t>
-        </is>
-      </c>
-      <c r="O79" t="n">
-        <v>5131</v>
-      </c>
-      <c r="P79" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>330</v>
       </c>
     </row>
@@ -6161,23 +5132,10 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Tierversuchsverbot-Initiative</t>
-        </is>
-      </c>
-      <c r="O80" t="n">
-        <v>4826</v>
-      </c>
-      <c r="P80" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>304</v>
       </c>
     </row>
@@ -6231,23 +5189,10 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Tierversuchsverbot-Initiative</t>
-        </is>
-      </c>
-      <c r="O81" t="n">
-        <v>4069</v>
-      </c>
-      <c r="P81" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>275</v>
       </c>
     </row>
@@ -6299,23 +5244,10 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Tierversuchsverbot-Initiative</t>
-        </is>
-      </c>
-      <c r="O82" t="n">
-        <v>4899</v>
-      </c>
-      <c r="P82" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>317</v>
       </c>
     </row>
@@ -6380,23 +5312,10 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Tierversuchsverbot-Initiative</t>
-        </is>
-      </c>
-      <c r="O83" t="n">
-        <v>4854</v>
-      </c>
-      <c r="P83" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>291</v>
       </c>
     </row>
@@ -6476,23 +5395,10 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Tierversuchsverbot-Initiative</t>
-        </is>
-      </c>
-      <c r="O84" t="n">
-        <v>9244</v>
-      </c>
-      <c r="P84" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>575</v>
       </c>
     </row>
@@ -6544,23 +5450,10 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Massentierhaltungsinitiative</t>
-        </is>
-      </c>
-      <c r="O85" t="n">
-        <v>3666</v>
-      </c>
-      <c r="P85" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>242</v>
       </c>
     </row>
@@ -6612,23 +5505,10 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Massentierhaltungsinitiative</t>
-        </is>
-      </c>
-      <c r="O86" t="n">
-        <v>3630</v>
-      </c>
-      <c r="P86" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>234</v>
       </c>
     </row>
@@ -6680,23 +5560,10 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Massentierhaltungsinitiative</t>
-        </is>
-      </c>
-      <c r="O87" t="n">
-        <v>2475</v>
-      </c>
-      <c r="P87" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>173</v>
       </c>
     </row>
@@ -6748,23 +5615,10 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Massentierhaltungsinitiative</t>
-        </is>
-      </c>
-      <c r="O88" t="n">
-        <v>3256</v>
-      </c>
-      <c r="P88" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>210</v>
       </c>
     </row>
@@ -6818,23 +5672,10 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Massentierhaltungsinitiative</t>
-        </is>
-      </c>
-      <c r="O89" t="n">
-        <v>4025</v>
-      </c>
-      <c r="P89" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>249</v>
       </c>
     </row>
@@ -6892,23 +5733,10 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Initiative für eine 13. AHV-Rente</t>
-        </is>
-      </c>
-      <c r="O90" t="n">
-        <v>2707</v>
-      </c>
-      <c r="P90" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>180</v>
       </c>
     </row>
@@ -6979,23 +5807,10 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Initiative für eine 13. AHV-Rente</t>
-        </is>
-      </c>
-      <c r="O91" t="n">
-        <v>7273</v>
-      </c>
-      <c r="P91" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>478</v>
       </c>
     </row>
@@ -7047,23 +5862,10 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Initiative für eine 13. AHV-Rente</t>
-        </is>
-      </c>
-      <c r="O92" t="n">
-        <v>4485</v>
-      </c>
-      <c r="P92" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>316</v>
       </c>
     </row>
@@ -7115,23 +5917,10 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Initiative für eine 13. AHV-Rente</t>
-        </is>
-      </c>
-      <c r="O93" t="n">
-        <v>3759</v>
-      </c>
-      <c r="P93" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>253</v>
       </c>
     </row>
@@ -7183,23 +5972,10 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>angenommen</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Initiative für eine 13. AHV-Rente</t>
-        </is>
-      </c>
-      <c r="O94" t="n">
-        <v>3368</v>
-      </c>
-      <c r="P94" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>226</v>
       </c>
     </row>
@@ -7251,23 +6027,10 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Kostenbremse-Initiative</t>
-        </is>
-      </c>
-      <c r="O95" t="n">
-        <v>3040</v>
-      </c>
-      <c r="P95" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>207</v>
       </c>
     </row>
@@ -7319,23 +6082,10 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Kostenbremse-Initiative</t>
-        </is>
-      </c>
-      <c r="O96" t="n">
-        <v>2623</v>
-      </c>
-      <c r="P96" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>182</v>
       </c>
     </row>
@@ -7389,23 +6139,10 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Kostenbremse-Initiative</t>
-        </is>
-      </c>
-      <c r="O97" t="n">
-        <v>3381</v>
-      </c>
-      <c r="P97" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>210</v>
       </c>
     </row>
@@ -7457,23 +6194,10 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Kostenbremse-Initiative</t>
-        </is>
-      </c>
-      <c r="O98" t="n">
-        <v>5572</v>
-      </c>
-      <c r="P98" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>355</v>
       </c>
     </row>
@@ -7542,23 +6266,10 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Kostenbremse-Initiative</t>
-        </is>
-      </c>
-      <c r="O99" t="n">
-        <v>8105</v>
-      </c>
-      <c r="P99" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>501</v>
       </c>
     </row>
@@ -7620,23 +6331,10 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Biodiversitätsinitiative</t>
-        </is>
-      </c>
-      <c r="O100" t="n">
-        <v>4271</v>
-      </c>
-      <c r="P100" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>274</v>
       </c>
     </row>
@@ -7703,23 +6401,10 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Biodiversitätsinitiative</t>
-        </is>
-      </c>
-      <c r="O101" t="n">
-        <v>5696</v>
-      </c>
-      <c r="P101" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>356</v>
       </c>
     </row>
@@ -7771,23 +6456,10 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Biodiversitätsinitiative</t>
-        </is>
-      </c>
-      <c r="O102" t="n">
-        <v>4387</v>
-      </c>
-      <c r="P102" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>268</v>
       </c>
     </row>
@@ -7839,23 +6511,10 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Biodiversitätsinitiative</t>
-        </is>
-      </c>
-      <c r="O103" t="n">
-        <v>4937</v>
-      </c>
-      <c r="P103" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>322</v>
       </c>
     </row>
@@ -7909,23 +6568,10 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Biodiversitätsinitiative</t>
-        </is>
-      </c>
-      <c r="O104" t="n">
-        <v>3754</v>
-      </c>
-      <c r="P104" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>229</v>
       </c>
     </row>
@@ -7981,23 +6627,10 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Umweltverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O105" t="n">
-        <v>1326</v>
-      </c>
-      <c r="P105" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>94</v>
       </c>
     </row>
@@ -8071,23 +6704,10 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Umweltverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O106" t="n">
-        <v>7825</v>
-      </c>
-      <c r="P106" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>504</v>
       </c>
     </row>
@@ -8157,23 +6777,10 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Umweltverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O107" t="n">
-        <v>7117</v>
-      </c>
-      <c r="P107" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>479</v>
       </c>
     </row>
@@ -8225,23 +6832,10 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Umweltverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O108" t="n">
-        <v>4332</v>
-      </c>
-      <c r="P108" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>294</v>
       </c>
     </row>
@@ -8293,23 +6887,10 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Umweltverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O109" t="n">
-        <v>6926</v>
-      </c>
-      <c r="P109" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>457</v>
       </c>
     </row>
@@ -8363,23 +6944,10 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>abgelehnt</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Umweltverantwortungsinitiative</t>
-        </is>
-      </c>
-      <c r="O110" t="n">
-        <v>2494</v>
-      </c>
-      <c r="P110" t="n">
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>161</v>
       </c>
     </row>
